--- a/main/nettoyage/etape3bis.xlsx
+++ b/main/nettoyage/etape3bis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A358"/>
+  <dimension ref="A1:A724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,2501 +439,5059 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>base vin</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vin rosé</t>
+          <t>la citrouille épicée</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>préférablement fumé</t>
+          <t>gin</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>confiture</t>
+          <t>liqueur amère italienne</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>crème ou lait</t>
+          <t>vermouth rouge</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tisane passion</t>
+          <t>sirop</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sauce tomate</t>
+          <t>vodka</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>orange et vanille le</t>
+          <t>liqueur fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cidre mousseux</t>
+          <t>vanille</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lacs</t>
+          <t>sucre</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>avril</t>
+          <t>thé infusé</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>sirop framboise monsieur cocktail</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vermouth ambré</t>
+          <t>sirop simple</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>atypique</t>
+          <t>rhubarbe et fraise</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>whisky seigle</t>
+          <t>sirop sucre canne</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>vin mousseux</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>curaçao bleu</t>
+          <t>base vin</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>crème noix coco</t>
+          <t>gin au concombre</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vodka patate route</t>
+          <t>miel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>distillerie</t>
+          <t>liqueur amère</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>datte</t>
+          <t>jus pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jus pur</t>
+          <t>vin rosé</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>datte ou sirop</t>
+          <t>tequila</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jus lime</t>
+          <t>liqueur café</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>préférablement chaud</t>
+          <t>whisky</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>thé infusé</t>
+          <t>préférablement fumé</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>thé matcha infusé</t>
+          <t>vin rouge</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>grenadine</t>
+          <t>liqueur framboise la chaufferie</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>brandy</t>
+          <t>basilic</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>tisane infusée et refroidie</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>citronnelle</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>concentré café infusé froid</t>
+          <t>liqueur gentiane</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jus vert green</t>
+          <t>tasse jus pomme brut</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>filtrée</t>
+          <t>vodka épicée spécial piment</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jus frais</t>
+          <t>liqueur fleur sureau</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>gin fin épicé</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bleu</t>
+          <t>jus pomme</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rhum agricole trois rivières cuvée</t>
+          <t>jus citron frais</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>crème écossaise magnum</t>
+          <t>pétillante</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pineau château réserve rouge ans</t>
+          <t>gin fin herbacé</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pineau</t>
+          <t>liqueur distillerie lacs</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>jus cerise</t>
+          <t>vin rouge ou blanc</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ans</t>
+          <t>liqueur amère amer amer</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>whisky royal</t>
+          <t>jus</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>crème violette</t>
+          <t>gin au gingembre</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vodka vil</t>
+          <t>sirop litchi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>liqueur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>liqueur rhubarbe maison</t>
+          <t>liqueur chartreuse</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tequila</t>
+          <t>confiture</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>jus tomate</t>
+          <t>que blancs fermes</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>jus citron</t>
+          <t>avril</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>vermouth sec</t>
+          <t>jus pomme brut</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>coco</t>
+          <t>jus citron</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>compote pomme</t>
+          <t>crème ou lait</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>tasse liqueur amère</t>
+          <t>vodka bison</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sauvage gin</t>
+          <t>liqueur chartreuse jaune</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>tasse tequila</t>
+          <t>jus frais</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>nectar</t>
+          <t>vodka pamplemousse et rose ou vodka</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>café froid</t>
+          <t>tisane passion</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>vermouth blanc</t>
+          <t>sirop fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>liqueur banane</t>
+          <t>gin aux agrumes distillerie du</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>calvados grand</t>
+          <t>coco</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>whisky black</t>
+          <t>la mangue</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>whisky canadien</t>
+          <t>sirop pêche blanche</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>liqueur amère</t>
+          <t>vermouth sec</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>chai infusé et refroidi</t>
+          <t>vodka fine la patate</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>lait</t>
+          <t>menthe ou sirop simple</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>whisky bourbon</t>
+          <t>sans</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dry gin</t>
+          <t>jus fraise</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>nectar pêche</t>
+          <t>gin saga</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lait coco</t>
+          <t>vodka terroir</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>liqueur framboise</t>
+          <t>rhum blanc ou rhum coco</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>vermouth rouge</t>
+          <t>sirop grenadine</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>liqueur sureau</t>
+          <t>vin blanc</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vodka quartz</t>
+          <t>tasse liqueur pêche</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>liqueur pêche</t>
+          <t>tasse jus lime frais</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>purée mangue</t>
+          <t>sirop simple refroidi</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>cola la cerise</t>
+          <t>gin fin zesté</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vodka aromatisée</t>
+          <t>liqueur fraise</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>liqueur et cognac grand</t>
+          <t>nectar pêche</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>jus mangue</t>
+          <t>liqueur litchi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>rhum brun</t>
+          <t>vodka tomate et basilic</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>boisson la noix coco</t>
+          <t>sauce tomate</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>vodka pur vodka</t>
+          <t>liqueur framboise maison</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tasse bleuets</t>
+          <t>gin pied cochon</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>raifort haché</t>
+          <t>saumure cornichon</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>salsa fraises et rhubarbe</t>
+          <t>boisson la crème au crème</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>limona</t>
+          <t>vodka pur vodka</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sirop miel local</t>
+          <t>jus pamplemousse frais</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bien</t>
+          <t>boisson la crème</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>purée poire</t>
+          <t>lait lait</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mousse lait</t>
+          <t>gin sans alcool</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>jus poire</t>
+          <t>curaçao bleu humble</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>boisson la crème</t>
+          <t>crème coco sucrée</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sirop zeste</t>
+          <t>menthe</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>whisky coureur bois</t>
+          <t>gin les herbes folles</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>tasse limona</t>
+          <t>whisky irlandais</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>crème menthe blanche</t>
+          <t>crème fouettée</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sirop thym</t>
+          <t>thé noir</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>purée framboise</t>
+          <t>chartreuse verte</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>tasse vin blanc</t>
+          <t>crème cassis cassis et filles</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>liqueur triple sec</t>
+          <t>whisky type bourbon</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>maison</t>
+          <t>thé noir infusé préférence</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>cidre glace</t>
+          <t>jus lime frais</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>fraise</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>vodka optez pour une bonne qualité</t>
+          <t>gin sans alcool signature</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>rhum épicé</t>
+          <t>jus fruits oasis fusion fruits</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>cognac</t>
+          <t>jus sanguine frais</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>jus blanc</t>
+          <t>purée fraise</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>saumure cornichon</t>
+          <t>gin sans alcool fleur</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>sirop orange et romarin les charlatans</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mélange tarte la citrouille</t>
+          <t>orange et vanille le</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>fruit la passion</t>
+          <t>gin sans alcool floral</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>feuille</t>
+          <t>crème cassis et filles</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sirop au</t>
+          <t>cidre mousseux</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ruban rhubarbe</t>
+          <t>vodka la pêche et fleur</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>botte rhubarbe tiges coupée en tronçons cm</t>
+          <t>café escape triple</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sorbet au citron</t>
+          <t>liqueur fleurs sureau</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>tige menthe</t>
+          <t>bouillante</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>mi givre sel</t>
+          <t>miel local</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>part vin mousseux</t>
+          <t>boisson la crème au chocolat</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>part pétillante</t>
+          <t>aromatique</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>teinture camomille optionnel</t>
+          <t>gin rouge</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>gousses</t>
+          <t>jus clémentine frais</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vanille</t>
+          <t>gin sans alcool atypique</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>thé moulue</t>
+          <t>pétillante ou gin atypique</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>tasse rhum épicé lacs</t>
+          <t>whisky sans alcool atypique</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>tasse whisky</t>
+          <t>nectar poire</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>tasse raisins verts</t>
+          <t>jus pur</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>brochette raisins givrés</t>
+          <t>gin gingembre</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>tuile sucre</t>
+          <t>lacs</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>blanc fermes</t>
+          <t>boisson la crème la vanille</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>thé mélange tarte la</t>
+          <t>café escape cottage</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>pétales rose déshydratées</t>
+          <t>liqueur whisky</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ruban céleri</t>
+          <t>liqueur pêche</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>petits cubes melon</t>
+          <t>gin bleu royal</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>fine tranche melon</t>
+          <t>sirop bleuet ou confiture bleuet</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>du</t>
+          <t>sirop ou</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>cubes</t>
+          <t>whisky écossais</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>bouquets basilic avec les tiges</t>
+          <t>sirop pin ou sapin</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>confiture baies</t>
+          <t>gin floral</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tagette</t>
+          <t>vermouth ambré</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>mélange sel casher et piment moulu</t>
+          <t>atypique</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>traits aromatique</t>
+          <t>jus blanc</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>canette club soda</t>
+          <t>crème menthe la crème menthe</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>tiges basilic</t>
+          <t>liqueur et au baumier églantine</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>bar épicée</t>
+          <t>tisane la camomille infusée et refroidie</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>distillerie du</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>sauge</t>
+          <t>whisky seigle</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>tasse bananes congelées</t>
+          <t>tasse fraises équeutées et tranchées en</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>poudre cacao</t>
+          <t>liqueur rhubarbe</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>banane</t>
+          <t>vermouth sec val</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>zestes</t>
+          <t>curaçao bleu</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>sucre canne</t>
+          <t>crème noix coco</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>les zestes oranges</t>
+          <t>brandy</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>eau fleur</t>
+          <t>crème cassis québécoise</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>étoile</t>
+          <t>liqueur amère sans alcool atypique</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>tasse fane céleri</t>
+          <t>confiture fraise</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>gouttes aromatique</t>
+          <t>vodka patate route</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>petit avion en papier</t>
+          <t>jus lime</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>arilles graines grena</t>
+          <t>sirop ou grenadine</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>tasse morceaux concombre</t>
+          <t>gin lime et basilic distillerie</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>confiture ou compote</t>
+          <t>distillerie</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>tranche pêche</t>
+          <t>tisane hibiscus et passion infusée et refroidie</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>fleurs camomille ou sachet camomille</t>
+          <t>sirop licorne cocktail</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>mi poire tranchée finement</t>
+          <t>vin orange</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>beurre naturel</t>
+          <t>tasse jus</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>gin lime</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>romarin</t>
+          <t>cannelle</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>branches romarin</t>
+          <t>sucre blanc</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>râpée</t>
+          <t>liqueur réduit</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>datte</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>tranche déshydraté</t>
+          <t>sirop cocktail ou sirop simple</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>tasse poire ou nectar poire</t>
+          <t>jus bleuet pur</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>moulue</t>
+          <t>les spiritueux</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>tranche poire</t>
+          <t>café corsé</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>tasse en</t>
+          <t>lait</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>marasquin</t>
+          <t>vermouth rouge italien</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>traits bitter céleri</t>
+          <t>jus frais et</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>traits solution saline ou pincée fleur sel</t>
+          <t>rhum</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>absinthe pour rincer le verre</t>
+          <t>datte ou sirop</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cidre rosé pétillant</t>
+          <t>bière bière sans alcool</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>sachet chai ou mélange</t>
+          <t>vodka aromatisée au citron</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>nuage lait optionnel</t>
+          <t>jus spray</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>feuilles sauge</t>
+          <t>framboise</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>petite tranche pamplemousse</t>
+          <t>rhum brun</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>fines herbes au choix</t>
+          <t>sirop litchi jus la canne</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>cidre mousseux avec ou sans alcool</t>
+          <t>liqueur maison</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>mélange maison sel et feuilles pour</t>
+          <t>liqueur café maria</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>préférablement chaud</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>tasse fleurs séchées</t>
+          <t>thé matcha infusé</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>essentielle</t>
+          <t>grenadine</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>eau aromatisée au thé bois</t>
+          <t>rhum brun club ans</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>tranches pamplemousse</t>
+          <t>rhum blanc</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>pétillante</t>
+          <t>jus et pamplemousse frais</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>soda tonique</t>
+          <t>sirop fraise</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>chai fous</t>
+          <t>liqueur melon</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sel pour givrer</t>
+          <t>concentré café infusé froid</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>barbe papa</t>
+          <t>gin jardin ver</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>menthe pour les verres</t>
+          <t>jus vert green</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>raisins verts</t>
+          <t>filtrée</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>thé fleur</t>
+          <t>gin distillerie</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>gingembre</t>
+          <t>sirop fruit la passion ou fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>au jasmin et litchi</t>
+          <t>sirop simple ou sirop vanille</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>crème fouetter</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>cardamome moulue</t>
+          <t>vodka rose prose vodka</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>dattes fraîches dénoyautées</t>
+          <t>jus tomate épicé sel poivre</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sel pour le givre</t>
+          <t>sirop tonique</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>passoire fine</t>
+          <t>liqueur framboise</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>framboises</t>
+          <t>bleu</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>cube sucre</t>
+          <t>rhum agricole trois rivières cuvée</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>liqueur thé du labrador</t>
+          <t>cannelle maison</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>tête menthe</t>
+          <t>soda au sodas</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>grain café</t>
+          <t>romarin</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>soda au sodas</t>
+          <t>crème écossaise magnum</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ruban concombre</t>
+          <t>café</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>tête basilic</t>
+          <t>tequila tequila</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>saveur fruit la passion</t>
+          <t>liqueur mandarine mandarine napoléon</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>tasse fraises du</t>
+          <t>purée pêche</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ombrelle papier</t>
+          <t>gin violette</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>fleur comestible</t>
+          <t>gin portage</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>soda tonique préférablement aromatisé la fleur sureau</t>
+          <t>pineau très vieux</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>brin</t>
+          <t>pineau château ans</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>fleur comestible ou boules melon</t>
+          <t>pineau château réserve rouge ans</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>menthe mi lime flambée</t>
+          <t>gin citron et tournesol distillerie lacs</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>épice pour le givre</t>
+          <t>miel sarrasin</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>quartier lime</t>
+          <t>pineau</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>cuillère crème glacée sorbet la noix coco</t>
+          <t>cognac</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>chips noix coco</t>
+          <t>jus cerise</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>déshydraté</t>
+          <t>ans</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>cacao en poudre</t>
+          <t>whisky royal</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>tasse sucre</t>
+          <t>whisky aromatisé la pêche royal</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>thé piment</t>
+          <t>thé refroidi</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>mexicaine sol</t>
+          <t>liqueur cerise marasquin</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>sel et paprika fumé pour le givre</t>
+          <t>crème violette</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>vodka vil</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>tasse fraises</t>
+          <t>jus grena pur du commerce</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>tranche fraise</t>
+          <t>sirop miel</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>jus melon</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>gin style</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>quartier épice steak</t>
+          <t>whisky canadien royal</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>chai infusé</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>fumée</t>
+          <t>gin bleu</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>zeste</t>
+          <t>liqueur rhubarbe maison</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>yogourt la noix coco</t>
+          <t>sel pour givrer</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>vin mousseux italien</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>une pincée sel</t>
+          <t>jus tomate et</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>vin mousseux</t>
+          <t>jus tomate</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>sanguine</t>
+          <t>whisky sortilège whisky</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>céréales type</t>
+          <t>fleur</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>tisane rhume biologique</t>
+          <t>compote pomme</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>bâton réglisse coupé en morceaux</t>
+          <t>gingembre en poudre</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>séché</t>
+          <t>tasse tequila</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>réglisse</t>
+          <t>tasse liqueur amère</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>miel</t>
+          <t>tasse jus pamplemousse frais</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>citron déshydraté</t>
+          <t>sauvage gin</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>saumure</t>
+          <t>gin sauvage</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>poivre noir fraîchement moulu</t>
+          <t>thé au jasmin</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>au chocolat bitter</t>
+          <t>vermouth cidre blanc</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>pincée moulue</t>
+          <t>rhum épicé chic choc</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>et églantier</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>noix râpée</t>
+          <t>surgelées</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>pêche</t>
+          <t>coupée en petits cubes</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>poivre rose</t>
+          <t>coupée en tranches minces</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>grains poivre rose concassés</t>
+          <t>thym</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>tranche cantaloup</t>
+          <t>tasse whisky bourbon</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>piment oiseau épépiné</t>
+          <t>tasse jus citron frais</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>effilées</t>
+          <t>liqueur et cognac grand</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>chocolat râpé</t>
+          <t>nectar</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>thé noir au jasmin</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>cidre pomme pétillant ou vin mousseux</t>
+          <t>confiture bleuet</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>traits sauce anglaise</t>
+          <t>café froid</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>un tour moulin poivre</t>
+          <t>gin hibiscus</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>concombres et saupoudrées steak</t>
+          <t>vodka aromatisée la poire</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>persil plat</t>
+          <t>vermouth blanc</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>purée pêche blanche</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>petits quartiers lime</t>
+          <t>liqueur banane</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>concombre trempée dans le miel</t>
+          <t>vin mousseux rosé</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>bière type</t>
+          <t>lait poule</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>tranche pomme</t>
+          <t>poudre cacao</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>tranchées</t>
+          <t>calvados grand</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>whisky black</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>tasse rhum la noix coco</t>
+          <t>tasse garniture pour tarte la citrouille</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>surgelés</t>
+          <t>rhum épicé</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>sirop simple</t>
+          <t>whisky canadien</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>vin rosé nages</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>pamplemousse</t>
+          <t>chai infusé et refroidi</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>fleurs déshydratée</t>
+          <t>whisky bourbon</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>clous girofle</t>
+          <t>sirop chocolat</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>thym</t>
+          <t>part liqueur fleur sureau</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>fraises</t>
+          <t>vin mousseux ou champagne</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>poudre thé matcha</t>
+          <t>thé vert infusé</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>tasse citronnelle coupée en morceaux</t>
+          <t>dry gin</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>coriandre</t>
+          <t>whisky canadien club</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>limona rose</t>
+          <t>et coriandre</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>garniture lime</t>
+          <t>pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>garniture mangue</t>
+          <t>au jasmin et refroidi</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>garniture thym</t>
+          <t>sirop au</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>airelles pomme grena</t>
+          <t>sirop noisette maison ou du commerce</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>tranches gingembre</t>
+          <t>tasse cubes mangue</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>au gingembre</t>
+          <t>boisson au rhum et la noix coco</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>menthe</t>
+          <t>lait coco</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>limona pétillante</t>
+          <t>poudre cacao cru</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>menthe bien fournie</t>
+          <t>sucre noix coco ou sucre canne</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>vin mousseux idéalement champagne</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>garniture bleuets</t>
+          <t>liqueur sureau</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>garniture chocolat noir</t>
+          <t>vin mousseux villa</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>vin mousseux brut nature cava</t>
+          <t>vodka quartz</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>coupée en petits cubes</t>
+          <t>vermouth cidre rouge gorge rouge</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>pomme grena</t>
+          <t>jus pomme grena</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>branches thym</t>
+          <t>gingembre</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>crème glacée la vanille</t>
+          <t>cidre glace pétillant domaine</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>chocolat noir</t>
+          <t>au gingembre</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>cerise terre</t>
+          <t>boisson la crème coureur bois</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>soda au gingembre ale</t>
+          <t>crème glacée la vanille</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>garniture menthe</t>
+          <t>boisson gazeuse au citron ou</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>garniture sel pour givrer</t>
+          <t>limona du commerce</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>garniture sauge</t>
+          <t>purée mangue</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>garniture pomme</t>
+          <t>sirop produits artisanaux</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>garniture branche sapin</t>
+          <t>eau pétillante</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>garniture cube grillée</t>
+          <t>cola la cerise</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>cube grillée</t>
+          <t>vodka aromatisée</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>tasse cubes melon</t>
+          <t>vodka aromatisée bison</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>feuilles menthe</t>
+          <t>jus mangue</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>feuilles pour les verres</t>
+          <t>boisson la noix coco</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>garniture pince homard salicornes et citron</t>
+          <t>purée fraise et</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>pince homard</t>
+          <t>tasse fraises</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>gingembre frais</t>
+          <t>tasse bleuets</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>petit bouquet lilas</t>
+          <t>basilic pourpre</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>pour les verres</t>
+          <t>saumure</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>aromatique</t>
+          <t>raifort haché</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>sucre blanc pour givrer</t>
+          <t>sauce anglaise</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>sauce piquante</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>branche romarin pour les verres</t>
+          <t>salsa fraises et rhubarbe</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>le jus huître</t>
+          <t>limona pétillante</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>fraîche</t>
+          <t>limona</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>garniture basilic</t>
+          <t>sirop miel local</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>cubes melon</t>
+          <t>concombre</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>tranche melon</t>
+          <t>basilic ou menthe</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>vin blanc</t>
+          <t>bien</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>tranche concombre salé</t>
+          <t>purée framboise</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>purée poire</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>vin rouge</t>
+          <t>vin mousseux blanquette domaine</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>mousse lait</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>eau pétillante ou soda tonique</t>
+          <t>sirop chai</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>part jus frais</t>
+          <t>jus poire</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>grosse citrouille en guise bol punch</t>
+          <t>soda tonique</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>bâtons cannelle pour les verres</t>
+          <t>sirop zeste</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>tasse et framboises fraîches</t>
+          <t>sirop sauge</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>sauce anglaise</t>
+          <t>thé vert la menthe infusé et refroidi</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>sauce piquante</t>
+          <t>whisky coureur bois</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>tomates cerises</t>
+          <t>soda au gingembre ale</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>basilic</t>
+          <t>vermouth blanc blanc</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>feuilles basilic</t>
+          <t>vin rosé gallo</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>tranches pomme</t>
+          <t>tasse limona</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>cannelle</t>
+          <t>tasse pétillante</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>boisson gazeuse au citron ou</t>
+          <t>citron</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>crème menthe blanche</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>sirop thym</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>curaçao bleu marie</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>tasse vin blanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>liqueur triple sec</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>maison</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>cidre glace</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>vodka optez pour une bonne qualité</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>jus rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>vin mousseux cava</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>bière noire</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>mélange tarte la citrouille</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>fruit la passion</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>mi fruit la passion</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>gousse vanille</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>feuille</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>tiges menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ruban rhubarbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>botte rhubarbe tiges coupée en tronçons cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>fraises du et coupées en</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>soda tonique au concombre sodas</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>tasse cerise dénoyautée et coupée</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>sel épicé la pincée pour le givre</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>sorbet au citron</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>petite feuille menthe ou basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ou quartiers lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>tige menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>feuilles menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>mi givre sel</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>pincée fleur sel</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>grains café</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>morceaux gingembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>gingembre frais</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>tranche gingembre cristallisé</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>marasquin</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>part vin mousseux</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>part pétillante</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>citronnelle fraîche coupés en tronçon pouce</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>fleurs déshydratées</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>lime déshydratée</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>teinture camomille optionnel</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>gousses</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>rose déshydratée</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>séchée</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ou cannelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>tasse sucre</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>tasse crème</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>thé moulue</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>tasse rhum épicé lacs</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>tasse whisky</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>moulue</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>étoiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>tasse fraîches</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>tasse raisins verts</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>brochette raisins givrés</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>tuile sucre</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>bière gingembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>soda tonique léger ou eau pétillante</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>poivre rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>blanc fermes</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>grains poivre rose concassés</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>cannelle râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>thé mélange tarte la</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>vin mousseux cava brut nature grand</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>gouttes sauce piquante</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>pétales rose déshydratées</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>chips noix coco</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>tranches pêche blanche</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>au céleri</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>ruban céleri</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>petits cubes melon</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>fine tranche melon</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>du</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>céleri</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>fleurs comestibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>cubes</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>têtes menthe pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>bouquets basilic avec les tiges</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>au fruit la passion club</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>confiture baies</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>tagette</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>tranchée finement</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>mélange sel casher et piment moulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>traits aromatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>canette club soda</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>tiges basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>bar épicée</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>moulin ou pincée sel et poivre</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>tranche croustillant</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>rubans concombre roulés</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>soda tonique au concombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>lime biologique avec</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>zestes lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>sauge</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>tasse bananes congelées</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>banane</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>zestes</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>tranche pamplemousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>céréales type</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>feuilles menthe fraîche avec les tiges</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>tasse framboise</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>cidre rosé pétillant</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>sucre canne</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>sucre glace</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>gouttes aromatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>les zestes oranges</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>soda tonique léger sodas</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>eau fleur</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>étoile</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>tasse fane céleri</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>petit avion en papier</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>ou zeste citron</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>tasse graines grena</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>arilles graines grena</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>sanguine</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>tasse morceaux concombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>tasse concombre coupé en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>confiture ou compote</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>tranche pêche</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>fleurs camomille ou sachet camomille</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>mi poire tranchée finement</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>tranches poire pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>beurre naturel</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>chocolat noir fondu pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>lime flambé</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>tranches clémentine</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>fraîches</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>branches romarin</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>pomme</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>clous girofle</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>tranche déshydraté</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>tasse poire ou nectar poire</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>tranche poire</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>tasse en</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>pêche enrobée tranche</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>soda tonique léger</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>thé sirop simple</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>bière</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>petite branche sapin ou cèdre</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>traits bitter céleri</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>traits solution saline ou pincée fleur sel</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>absinthe pour rincer le verre</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>sachet chai ou mélange</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>déshydratée</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>nuage lait optionnel</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>feuilles sauge</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>petite tranche pamplemousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>tasse et tranchée en</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>fines herbes au choix</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>graines cardamome</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>cidre mousseux avec ou sans alcool</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>vin mousseux brute</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>citron déshydratée</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>mélange maison sel et feuilles pour</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>tranche fraise</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>soda tonique la fleur sureau sodas</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>tasse fleurs séchées</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>essentielle</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>eau aromatisée au thé bois</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>liqueur thé du labrador</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>noix coco râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>tranches pamplemousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>tranche pamplemousse et tête menthe pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>chai fous</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>feuilles basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>eau pétillante aromatisée la fraise</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>barbe papa</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>boules cantaloup</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>menthe pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>framboises</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>raisins verts</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>thé fleur</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>au jasmin et litchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>ou émulsifiant</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>thé</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>cardamome moulue</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>garniture lime déshydratée</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>dattes fraîches dénoyautées</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>tranches fines curcuma</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>tranches et étoiles pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>eau pétillante saveur pamplemousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>sel pour le givre</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>passoire fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>cube sucre</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>bière type session</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>cidre pomme pétillant cidrerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>tasse morceaux concombres</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>tête menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>grain café</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>ruban concombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>tête basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>saveur fruit la passion</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>têtes menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>tasse fraises du</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>bar grenadine</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>ombrelle papier</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>fleur comestible</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>soda tonique préférablement aromatisé la fleur sureau</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>brin</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>fleur comestible ou boules melon</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>menthe mi lime flambée</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>épice pour le givre</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>quartier lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>cuillère crème glacée sorbet la noix coco</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>déshydraté</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>cacao en poudre</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>tasse jus frais</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>thé piment</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>sauce épicée légèrement fumée comme la</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>tasse mangue jaune coupée en petits cubes</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>mexicaine sol</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>sel et paprika fumé pour le givre</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>pincée sel</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>zeste citron</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>vin mousseux blanquette</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>art</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>ou</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>quartier épice steak</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>fumée</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>zeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>cerise marasquin</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>fraises</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>cerise marasquin tranche</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>eau pétillante saveur pamplemousse la croix</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>pamplemousse et menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>yogourt la noix coco</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>poudre cari et noix coco râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>la</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>une pincée sel</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>tisane rhume biologique</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>tranches gingembre frais</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>fleurs camomille ou sachet tisane la camomille</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>bâton réglisse coupé en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>séché</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>réglisse</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>citron déshydraté</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>poivre noir fraîchement moulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>au chocolat bitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>chocolat noir râpé</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>pincée cannelle moulue</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>pincée gingembre moulue</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>pincée moulue</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>noix râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>pêche</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>tranches pêches</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>tasse cubes melon miel</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>cubes cantaloup</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>tranche cantaloup</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>piment oiseau épépiné</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>effilées</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>chocolat râpé</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>tasse pomme verte coupée en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>tranche pomme verte</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>cidre pomme pétillant ou vin mousseux</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>concombres</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>garniture tranche pamplemousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>traits sauce piquante</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>traits sauce anglaise</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>un tour moulin poivre</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>épices steak pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>concombres et saupoudrées steak</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>persil plat</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>sel céleri pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>petits quartiers lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>tranches concombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>concombre trempée dans le miel</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>bière type</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>tasse naturelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>garniture tranche pomme</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>tranche pomme</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>tranchées</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>tranches concombre et concombre pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>cubes melon</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>garnitures branches thym pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>branches thym pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>tasse rhum la noix coco</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>tasse lait coco en canne</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>surgelés</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>feuilles sauge pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>garniture citron</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>tasse poire asiatique coupée en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>fleurs déshydratée</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>pincée</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>pincée cardamome moulue</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>piment oiseau coupé en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>poudre thé matcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>tasse citronnelle coupée en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>petit bouquet basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>coriandre</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>ou gouttes rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>limona rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>garniture basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>sel mer pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>garniture lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>garniture morceaux noisettes grillées et zeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>garniture mangue</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>garniture et noix coco râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>garniture thym</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>boisson pétillante sanguine</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>garniture airelles pomme grena</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>airelles pomme grena</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>garniture mélange sucre et zestes pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>tranches gingembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>menthe bien fournie</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>lime et</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>garniture thym citronné</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>garniture fraises et basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>garniture bleuets</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>garniture mélange poivre rose et fleur sel pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>garniture basilic et petite omelette</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>garniture menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>garniture ruban concombre et tête menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>garniture tête basilic ou menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>garniture brochette framboises</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>garniture chocolat noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>vin mousseux brut nature cava</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>pomme rouge coupée en petits cubes</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>pomme grena</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>branches thym</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>chocolat noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>cerise terre</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>garniture sel pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>garniture sauge</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>garniture pomme</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>garniture flocons pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>garniture grillée</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>garniture branche sapin</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>garniture cube grillée</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>cube grillée</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>tasse cubes melon</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>feuilles pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>eau pétillante ou vin mousseux</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>garniture pince homard salicornes et citron</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>pince homard</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>tiges salicorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>petit bouquet lilas</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>cube sucre canne</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>sucre blanc pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>branche romarin pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>tasse petits fruits bleuets framboises fraises</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>le jus huître</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>fraîche</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>boisson pétillante la poire</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>eau pétillante ou soda au gingembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>tasse</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>tranche melon</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>tranches pêche</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>tranche concombre salé</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>soda</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>eau pétillante ou soda tonique</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>garniture zeste lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>part cidre mousseux</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>part jus frais</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>grosse citrouille en guise bol punch</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>bâtons cannelle pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>tasse et framboises fraîches</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>bière légère</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>tomates cerises</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>sucre blanc et cannelle pour givrer</t>
         </is>
       </c>
     </row>

--- a/main/nettoyage/etape3bis.xlsx
+++ b/main/nettoyage/etape3bis.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A724"/>
+  <dimension ref="A1:B547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,5064 +422,6558 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>liqueur vanille</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>la citrouille épicée</t>
+          <t>café</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>café</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>la citrouille</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>liqueur amère italienne</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>crème</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vermouth rouge</t>
+          <t>mélange</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mélange tarte la</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gin</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>liqueur amère italienne</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>liqueur fruit la passion</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vermouth</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vanille</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>jus citron</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sirop</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>thé infusé</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>liqueur fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sirop framboise monsieur cocktail</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>jus lime</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sirop simple</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fruit la</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rhubarbe et fraise</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>vin</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sirop sucre canne</t>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>mi fruit la</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vin mousseux</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gousse</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>base vin</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>eau</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gin au concombre</t>
+          <t>feuille</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>feuille</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>miel</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>thé</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>liqueur amère</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>sirop framboise monsieur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jus pamplemousse</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sirop au</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vin rosé</t>
+          <t>tiges</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tiges</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>tequila</t>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rhubarbe et</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>liqueur café</t>
+          <t>ruban</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ruban</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>tiges</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>botte rhubarbe tiges en tronçons</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>préférablement fumé</t>
+          <t>fraises</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>fraises du et coupées en</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vin rouge</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>jus pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>liqueur framboise la chaufferie</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>soda tonique au concombre sodas</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>basilic</t>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rhum épicé</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tisane infusée et refroidie</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>sirop sucre</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>citronnelle</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>tasse cerise dénoyautée et</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>liqueur gentiane</t>
+          <t>sel</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sel épicé la pincée pour le</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tasse jus pomme brut</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sorbet au</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vodka épicée spécial piment</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>vin mousseux</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>liqueur fleur sureau</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>vodka</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>gin fin épicé</t>
+          <t>petite</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>petite feuille menthe ou</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>jus pomme</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>liqueur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jus citron frais</t>
+          <t>sel</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>sel pour</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pétillante</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>base vin</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gin fin herbacé</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>gin au concombre</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>liqueur distillerie lacs</t>
+          <t>concombre</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>concombre</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>vin rouge ou blanc</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ou quartiers</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>liqueur amère amer amer</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>liqueur amère</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>vin rosé</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gin au gingembre</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>jus</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sirop litchi</t>
+          <t>tige menthe</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tige menthe</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>feuilles</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>feuilles menthe</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>liqueur chartreuse</t>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>demi givre</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>confiture</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>liqueur café</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>que blancs fermes</t>
+          <t>café</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>café chaud</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>avril</t>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>pincée fleur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jus pomme brut</t>
+          <t>grains</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>grains</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>jus citron</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>whisky</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>crème ou lait</t>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>miel</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>vodka bison</t>
+          <t>morceaux</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>morceaux gingembre</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>liqueur chartreuse jaune</t>
+          <t>gingembre</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gingembre</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>jus frais</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>whisky ou</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>vodka pamplemousse et rose ou vodka</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>liqueur framboise la</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>tisane passion</t>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>basilic</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sirop fruit la passion</t>
+          <t>fleur</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>fleur</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>gin aux agrumes distillerie du</t>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>part vin mousseux</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>coco</t>
+          <t>bâtons</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>bâtons citronnelle fraîche coupés en tronçon</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>la mangue</t>
+          <t>tisane</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tisane infusée et</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sirop pêche blanche</t>
+          <t>fleurs</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>fleurs</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>vermouth sec</t>
+          <t>lime</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>lime</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>vodka fine la patate</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>liqueur gentiane</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>menthe ou sirop simple</t>
+          <t>teinture camomille optionnel</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>teinture camomille optionnel</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sans</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>jus pomme</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jus fraise</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>gousses</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>gin saga</t>
+          <t>déshydratée</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rose déshydratée</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>vodka terroir</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ou</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rhum blanc ou rhum coco</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>vodka épicée spécial</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sirop grenadine</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>liqueur fleur sureau</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>vin blanc</t>
+          <t>lait</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>lait</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>tasse liqueur pêche</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tasse whisky</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>tasse jus lime frais</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>gin fin épicé</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sirop simple refroidi</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>tasse miel</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>gin fin zesté</t>
+          <t>pomme</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>pomme</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>liqueur fraise</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>tasse</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>nectar pêche</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>gin fin herbacé</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>liqueur litchi</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sirop simple</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>vodka tomate et basilic</t>
+          <t>raisins</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>raisins</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sauce tomate</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>soda</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>liqueur framboise maison</t>
+          <t>raisins</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>brochette raisins</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>gin pied cochon</t>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rhum épicé distillerie</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>saumure cornichon</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>liqueur distillerie</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>boisson la crème au crème</t>
+          <t>sucre</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>tuile sucre</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>vodka pur vodka</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>vin rouge ou</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>jus pamplemousse frais</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>soda au gingembre</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>boisson la crème</t>
+          <t>aromatique</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>aromatique</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>lait lait</t>
+          <t>bière</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>bière</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>gin sans alcool</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>liqueur amère amer</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curaçao bleu humble</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>gin au gingembre</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>crème coco sucrée</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>soda tonique léger ou eau</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>menthe</t>
+          <t>poivre</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>poivre</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>gin les herbes folles</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>blanc fermes</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>whisky irlandais</t>
+          <t>grains</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>grains poivre rose concassés</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>crème fouettée</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>liqueur chartreuse</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>thé noir</t>
+          <t>confiture</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>confiture</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>chartreuse verte</t>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>pincée cannelle</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>crème cassis cassis et filles</t>
+          <t>que blancs fermes</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>que blancs fermes</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>whisky type bourbon</t>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>cannelle</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>thé noir infusé préférence</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>crème ou lait</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>jus lime frais</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>moulue</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>thé mélange tarte la</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>gin sans alcool signature</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>vin mousseux cava brut nature grand</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>jus fruits oasis fusion fruits</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>vodka bison</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>jus sanguine frais</t>
+          <t>gouttes</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>gouttes sauce</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>purée fraise</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>vodka pamplemousse et rose</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>gin sans alcool fleur</t>
+          <t>pétales rose</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>pétales rose</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sirop orange et romarin les charlatans</t>
+          <t>tisane</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>tisane passion</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>orange et vanille le</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>sirop fruit la</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>gin sans alcool floral</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>gin aux agrumes distillerie du</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>crème cassis et filles</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>la</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>cidre mousseux</t>
+          <t>noix</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>chips noix</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vodka la pêche et fleur</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>sirop pêche blanche</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>café escape triple</t>
+          <t>pêche</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>pêche</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>liqueur fleurs sureau</t>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>traits au céleri</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>bouillante</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>vodka fine la patate</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>miel local</t>
+          <t>melon</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>petits cubes melon</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>boisson la crème au chocolat</t>
+          <t>melon</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>fine melon</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>aromatique</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ou sirop</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>gin rouge</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>pétillante</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>jus clémentine frais</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>gin gin sans</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>gin sans alcool atypique</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>jus fraise</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>pétillante ou gin atypique</t>
+          <t>du</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>du</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>whisky sans alcool atypique</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>gin saga</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>nectar poire</t>
+          <t>céleri</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>céleri</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jus pur</t>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>rhum blanc rhum</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>gin gingembre</t>
+          <t>têtes</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>têtes menthe pour les</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>lacs</t>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>bouquets basilic avec les</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>boisson la crème la vanille</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>tequila</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>café escape cottage</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>au fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>liqueur whisky</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>gin fin zesté</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>liqueur pêche</t>
+          <t>confiture</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>confiture baies</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>gin bleu royal</t>
+          <t>tranchée</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>tranchée</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sirop bleuet ou confiture bleuet</t>
+          <t>nectar</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>nectar</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sirop ou</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>liqueur litchi</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>whisky écossais</t>
+          <t>gouttes</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>gouttes sauce piquante</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>sirop pin ou sapin</t>
+          <t>mélange</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>mélange sel casher et piment</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>gin floral</t>
+          <t>canette</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>canette club</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>vermouth ambré</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>vodka tomate et basilic</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>atypique</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>sauce tomate</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>jus blanc</t>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>bar épicée</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>crème menthe la crème menthe</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>sauce anglaise</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>liqueur et au baumier églantine</t>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>tours moulin ou pincée sel et</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>tisane la camomille infusée et refroidie</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>liqueur framboise maison</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>distillerie du</t>
+          <t>citron</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>citron</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>whisky seigle</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>gin pied cochon</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>tasse fraises équeutées et tranchées en</t>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>traits aromatique</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>liqueur rhubarbe</t>
+          <t>ruban</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>rubans concombre</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>vermouth sec val</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>saumure</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>curaçao bleu</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>soda tonique au concombre</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>crème noix coco</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>boisson la crème au</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>brandy</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>vodka pur</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>crème cassis québécoise</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>eau pétillante</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>liqueur amère sans alcool atypique</t>
+          <t>zeste</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>zestes</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>confiture fraise</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>boisson la crème</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>vodka patate route</t>
+          <t>lait</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>lait lait</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>jus lime</t>
+          <t>poudre</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>poudre</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>sirop ou grenadine</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>gin sans alcool</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>gin lime et basilic distillerie</t>
+          <t>curaçao</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>curaçao bleu</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>distillerie</t>
+          <t>limona</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>limona pétillante</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>tisane hibiscus et passion infusée et refroidie</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>crème coco</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>sirop licorne cocktail</t>
+          <t>céréales type</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>céréales type</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>vin orange</t>
+          <t>feuilles</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>feuilles menthe fraîche avec les</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>tasse jus</t>
+          <t>framboise</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>framboise</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>gin lime</t>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>cidre rosé</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>cannelle</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>gin les herbes</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sucre blanc</t>
+          <t>sucre</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>sucre</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>liqueur réduit</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>crème fouettée</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>datte</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>thé noir</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>sirop cocktail ou sirop simple</t>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>chartreuse</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>jus bleuet pur</t>
+          <t>zeste</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>les zestes</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>les spiritueux</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>crème cassis cassis et</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>café corsé</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>jus pamplemousse frais</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>lait</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>soda tonique léger</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>vermouth rouge italien</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>eau fleur</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>jus frais et</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>vermouth sec</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>fane</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>fane</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>datte ou sirop</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>whisky type</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>bière bière sans alcool</t>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>petit avion en</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>vodka aromatisée au citron</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>thé noir infusé</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>jus spray</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ou zeste</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>framboise</t>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>pincée</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>rhum brun</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>jus fruits oasis fusion</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>sirop litchi jus la canne</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>tasse graines</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>liqueur maison</t>
+          <t>arilles graines</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>arilles graines</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>liqueur café maria</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>jus sanguine</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>préférablement chaud</t>
+          <t>purée</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>purée</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>thé matcha infusé</t>
+          <t>morceaux</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>morceaux</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>grenadine</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>au</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>rhum brun club ans</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>gin sans alcool fleur</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>rhum blanc</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>sirop orange et romarin les charlatans</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>jus et pamplemousse frais</t>
+          <t>le jus</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>orange et vanille le</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sirop fraise</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>tasse concombre coupé en</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>liqueur melon</t>
+          <t>confiture</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>confiture ou compote</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>concentré café infusé froid</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>crème cassis et</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>gin jardin ver</t>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>cidre</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>jus vert green</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>vodka la pêche et fleur</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>filtrée</t>
+          <t>café</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>café escape triple</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>gin distillerie</t>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>pincée fleur sel</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sirop fruit la passion ou fruit la passion</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>liqueur fleurs sureau</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sirop simple ou sirop vanille</t>
+          <t>fleurs</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>fleurs camomille sachet</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>crème fouetter</t>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>mi poire tranchée</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>vodka rose prose vodka</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>poire pour les</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>jus tomate épicé sel poivre</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>boisson la crème au chocolat</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sirop tonique</t>
+          <t>beurre</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>beurre</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>liqueur framboise</t>
+          <t>chocolat</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>chocolat noir fondu pour</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>bleu</t>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>mi</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>rhum agricole trois rivières cuvée</t>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>rhum</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>cannelle maison</t>
+          <t>lime</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>lime flambé</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>soda au sodas</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>gin rouge</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>romarin</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>jus clémentine</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>crème écossaise magnum</t>
+          <t>romarin</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>romarin</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>canette</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>canette pétillante gin</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>tequila tequila</t>
+          <t>branches</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>branches</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>liqueur mandarine mandarine napoléon</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>whisky sans alcool atypique</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>purée pêche</t>
+          <t>clous</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>clous girofle</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>gin violette</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>boisson la crème la vanille</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>gin portage</t>
+          <t>café</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>café escape</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>pineau très vieux</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>liqueur whisky</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>pineau château ans</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>tasse poire ou nectar</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>pineau château réserve rouge ans</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>tasse pêche en</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>gin citron et tournesol distillerie lacs</t>
+          <t>quartier</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>quartier pêche enrobée tranche</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>miel sarrasin</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>gin bleu</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>pineau</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>sirop bleuet ou confiture</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>cognac</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>soda tonique</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>jus cerise</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>sirop ou</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ans</t>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>cannelle râpée</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>whisky royal</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>whisky écossais</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>whisky aromatisé la pêche royal</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>thé sirop</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>thé refroidi</t>
+          <t>marasquin</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>marasquin</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>liqueur cerise marasquin</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>gin gingembre</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>crème violette</t>
+          <t>petite</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>petite branche sapin ou</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>vodka vil</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>liqueur fleur</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>jus grena pur du commerce</t>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>traits bitter céleri</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sirop miel</t>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>traits solution saline ou pincée fleur</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>jus melon</t>
+          <t>le jus</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>absinthe pour rincer le</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>gin style</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>sirop pin ou</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>whisky canadien royal</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>jus citron frais</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>chai infusé</t>
+          <t>chai</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>sachet chai ou mélange</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>gin bleu</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>nuage lait</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>liqueur rhubarbe maison</t>
+          <t>feuilles</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>feuilles</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>sel pour givrer</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>vermouth ambré</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>vin mousseux italien</t>
+          <t>petite</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>petite</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>jus tomate et</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>crème menthe la crème menthe</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>jus tomate</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>tasse cerise et tranchée en</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>whisky sortilège whisky</t>
+          <t>fines</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>fines herbes au</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>liqueur et au baumier</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>compote pomme</t>
+          <t>cardamome</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>graines cardamome</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>gingembre en poudre</t>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>cidre mousseux avec ou sans</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>tasse tequila</t>
+          <t>tisane</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>tisane la camomille infusée et</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>tasse liqueur amère</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>vin mousseux brute</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>tasse jus pamplemousse frais</t>
+          <t>distillerie</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>distillerie du</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>sauvage gin</t>
+          <t>mélange</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>mélange maison sel et feuilles pour</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>gin sauvage</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>whisky seigle</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>thé au jasmin</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>tasse fraises équeutées et tranchées en</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>vermouth cidre blanc</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>thé miel</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>rhum épicé chic choc</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>soda tonique la fleur sureau</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>et églantier</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>vermouth sec val</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>surgelées</t>
+          <t>bière</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>bière au café</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>coupée en petits cubes</t>
+          <t>essentielle</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>essentielle</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>coupée en tranches minces</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>eau pétillante aromatisée au thé bois</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>thym</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>liqueur thé du labrador</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>tasse whisky bourbon</t>
+          <t>curaçao</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>curaçao</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>tasse jus citron frais</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>crème noix</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>liqueur et cognac grand</t>
+          <t>noix</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>noix coco</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>nectar</t>
+          <t>brandy</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>brandy</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>thé noir au jasmin</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>crème cassis</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>confiture bleuet</t>
+          <t>pamplemousse</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>café froid</t>
+          <t>lime et</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>tranche pamplemousse et tête menthe pour les</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>gin hibiscus</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>liqueur amère sans alcool</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>vodka aromatisée la poire</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>jus lime frais</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>vermouth blanc</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>vodka patate route</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>purée pêche blanche</t>
+          <t>chai</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>chai fous</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>liqueur banane</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>gin lime et basilic distillerie</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>vin mousseux rosé</t>
+          <t>distillerie</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>distillerie</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>lait poule</t>
+          <t>tisane</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>tisane hibiscus et passion infusée et refroidie</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>poudre cacao</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>sirop licorne cocktail</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>calvados grand</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>eau pétillante aromatisée la</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>whisky black</t>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>barbe</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>tasse garniture pour tarte la citrouille</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>vin orange</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>rhum épicé</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>tasse jus</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>whisky canadien</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>boules</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>vin rosé nages</t>
+          <t>poivre</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>poivre rose</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>chai infusé et refroidi</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>menthe pour les</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>whisky bourbon</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>liqueur réduit</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>sirop chocolat</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>thé fleur</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>part liqueur fleur sureau</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>sirop ou sirop</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>vin mousseux ou champagne</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>au jasmin et litchi</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>thé vert infusé</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>jus bleuet</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>dry gin</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>sirop cocktail sirop</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>whisky canadien club</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ou émulsifiant</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>et coriandre</t>
+          <t>pour les</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>les spiritueux</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>pamplemousse</t>
+          <t>cardamome</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>cardamome</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>au jasmin et refroidi</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>vermouth rouge</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>sirop au</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>jus frais et</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>sirop noisette maison ou du commerce</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>garniture lime</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>tasse cubes mangue</t>
+          <t>dattes fraîches</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>dattes fraîches</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>boisson au rhum et la noix coco</t>
+          <t>bière</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>bière bière sans</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>lait coco</t>
+          <t>fines</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>fines</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>poudre cacao cru</t>
+          <t>lime et</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>tranches et étoiles pour les</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>sucre noix coco ou sucre canne</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>eau pétillante saveur</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>vin mousseux idéalement champagne</t>
+          <t>sel</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>sel pour le</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>liqueur sureau</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>vodka aromatisée au citron</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>vin mousseux villa</t>
+          <t>passoire</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>passoire</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>vodka quartz</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>sirop litchi jus la</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>vermouth cidre rouge gorge rouge</t>
+          <t>bière</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>bière type</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>jus pomme grena</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>garniture tête</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>gingembre</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>liqueur maison</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>cidre glace pétillant domaine</t>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>cidre pomme pétillant cidrerie</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>au gingembre</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>tasse morceaux</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>boisson la crème coureur bois</t>
+          <t>tête</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>tête</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>crème glacée la vanille</t>
+          <t>préférablement</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>préférablement</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>boisson gazeuse au citron ou</t>
+          <t>café</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>grain café</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>limona du commerce</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>thé matcha</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>purée mangue</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>soda au</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>sirop produits artisanaux</t>
+          <t>cola la</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>saveur fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>eau pétillante</t>
+          <t>têtes</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>têtes</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>cola la cerise</t>
+          <t>fraises</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>fraises du</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>vodka aromatisée</t>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>rhum brun club</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>vodka aromatisée bison</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>sirop fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>jus mangue</t>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>bar</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>boisson la noix coco</t>
+          <t>ombrelle</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>ombrelle</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>purée fraise et</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>vin rouge</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>tasse fraises</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>jus et pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>tasse bleuets</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>sirop fraise</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>basilic pourpre</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>eau pétillante aromatisée la fraise</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>saumure</t>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>soda tonique préférablement aromatisé la fleur</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>raifort haché</t>
+          <t>brin</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>brin</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>sauce anglaise</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>liqueur melon</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>sauce piquante</t>
+          <t>melon</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>melon</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>salsa fraises et rhubarbe</t>
+          <t>fleur</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>fleur comestible ou boules</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>limona pétillante</t>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>menthe mi lime</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>limona</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>épice pour le</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>sirop miel local</t>
+          <t>quartier</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>quartier</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>cuillère crème glacée sorbet la noix</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>basilic ou menthe</t>
+          <t>café</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>concentré café infusé froid</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>bien</t>
+          <t>cacao en</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>cacao en</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>purée framboise</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>thé piment</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>purée poire</t>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>traits sauce épicée légèrement fumée comme la</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>vin mousseux blanquette domaine</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>tasse mangue jaune coupée en petits</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>mousse lait</t>
+          <t>mexicaine</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>mexicaine</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>sirop chai</t>
+          <t>sel</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>sel et paprika fumé pour le</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>jus poire</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>gin jardin</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>soda tonique</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>jus vert green</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sirop zeste</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>gin distillerie</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>sirop sauge</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>sirop fruit la passion ou fruit la</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>thé vert la menthe infusé et refroidi</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>vin mousseux blanquette domaine</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>whisky coureur bois</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>vin mousseux ou</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>soda au gingembre ale</t>
+          <t>zeste</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>zeste</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>vermouth blanc blanc</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>sirop simple ou sirop</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>vin rosé gallo</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>crème fouetter</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>tasse limona</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>vin mousseux blanquette</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>tasse pétillante</t>
+          <t>fraise</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>fraise</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>art</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>crème menthe blanche</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>vodka rose prose</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>sirop thym</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>jus tomate épicé sel</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>curaçao bleu marie</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>sirop tonique</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>tasse vin blanc</t>
+          <t>quartier</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>quartier épice</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>liqueur triple sec</t>
+          <t>fumée</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>fumée</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>maison</t>
+          <t>cerise</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>cerise marasquin</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>cidre glace</t>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>rhum agricole trois rivières cuvée</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>vodka optez pour une bonne qualité</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>eau pétillante saveur pamplemousse la</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>jus rouge</t>
+          <t>pamplemousse</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>pamplemousse et tête</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>vin mousseux cava</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>garniture</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>bière noire</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>crème écossaise</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>mélange tarte la citrouille</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>yogourt la noix</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>fruit la passion</t>
+          <t>poudre</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>poudre cari et noix coco</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>mi fruit la passion</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>vermouth rouge italien</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>gousse vanille</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>liqueur mandarine mandarine</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>feuille</t>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>une pincée</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>tiges menthe</t>
+          <t>tisane</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>tisane rhume biologique</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ruban rhubarbe</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>thé fleurs camomille ou sachet tisane la</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>botte rhubarbe tiges coupée en tronçons cm</t>
+          <t>cacao en</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>bâton réglisse coupé en</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>fraises du et coupées en</t>
+          <t>clous</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>clous</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>soda tonique au concombre sodas</t>
+          <t>pineau</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>pineau très</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>tasse cerise dénoyautée et coupée</t>
+          <t>pineau</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>pineau château ans</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>sel épicé la pincée pour le givre</t>
+          <t>pineau</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>pineau des château réserve rouge</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>sorbet au citron</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>gin citron et tournesol distillerie</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>petite feuille menthe ou basilic</t>
+          <t>poivre</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>poivre noir fraîchement</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>pineau</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>pineau</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ou quartiers lime</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>au chocolat</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>tige menthe</t>
+          <t>chocolat</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>chocolat noir</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>feuilles menthe</t>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>pincée gingembre</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>mi givre sel</t>
+          <t>noix</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>noix</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>pincée fleur sel</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>whisky aromatisé la pêche royal</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>grains café</t>
+          <t>cubes</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>cubes melon</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>morceaux gingembre</t>
+          <t>grains</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>grains poivre rose</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>gingembre frais</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>liqueur cerise marasquin</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>tranche gingembre cristallisé</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>jus grena pur du</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>marasquin</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>jus melon</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>part vin mousseux</t>
+          <t>piment</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>piment oiseau</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>part pétillante</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>gin style</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>citronnelle fraîche coupés en tronçon pouce</t>
+          <t>chocolat</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>chocolat</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>fleurs déshydratées</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>tasse pomme verte coupée en</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>lime déshydratée</t>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>cidre pomme pétillant ou vin</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>teinture camomille optionnel</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>whisky canadien</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>gousses</t>
+          <t>chai</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>chai</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>rose déshydratée</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>liqueur rhubarbe maison</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>séchée</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>vin mousseux italien</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ou cannelle</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>jus tomate et</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>tasse sucre</t>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>traits sauce piquante</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>tasse crème</t>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>traits sauce anglaise</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>thé moulue</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>un tour moulin</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>tasse rhum épicé lacs</t>
+          <t>sel pour</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>épices steak pour</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>tasse whisky</t>
+          <t>lime et</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>concombres et saupoudrées</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>moulue</t>
+          <t>persil</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>persil</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>tranches pomme</t>
+          <t>sel</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>sel céleri pour</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>étoiles</t>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>petits quartiers</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>tasse fraîches</t>
+          <t>concombre</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>concombre trempée dans le</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>tasse raisins verts</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>whisky sortilège</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>brochette raisins givrés</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>tasse naturelles</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>tuile sucre</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>vin blanc</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>bière gingembre</t>
+          <t>pomme</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>compote pomme</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>soda tonique léger ou eau pétillante</t>
+          <t>gingembre</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>gingembre en</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>poivre rose</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>tasse liqueur amère</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>blanc fermes</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>tasse jus pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>grains poivre rose concassés</t>
+          <t>lime et</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>tranches concombre et concombre pour les</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>cannelle râpée</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>sauvage</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>thé mélange tarte la</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>thé au</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>vin mousseux cava brut nature grand</t>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>rhum brun</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>gouttes sauce piquante</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>vermouth cidre</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>pétales rose déshydratées</t>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>rhum épicé chic</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>chips noix coco</t>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>et églantier</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>tranches pêche blanche</t>
+          <t>fraises</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>fraises</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>au céleri</t>
+          <t>coupée</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>coupée en petits</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ruban céleri</t>
+          <t>coupée</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>coupée en</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>petits cubes melon</t>
+          <t>sel pour</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>garnitures branches thym pour les</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>fine tranche melon</t>
+          <t>branches</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>branches thym pour les</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>du</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>tasse rhum la noix coco</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>lait</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>lait coco en</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>fleurs comestibles</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>liqueur et cognac grand</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>cubes</t>
+          <t>feuilles</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>feuilles sauge pour les</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>têtes menthe pour les verres</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>thé noir au</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>bouquets basilic avec les tiges</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>gin hibiscus</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>au fruit la passion club</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>tasse poire asiatique coupée en</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>confiture baies</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>vodka aromatisée la poire</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>tagette</t>
+          <t>purée</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>purée pêche</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>vin mousseux rosé</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>tranchée finement</t>
+          <t>calvados grand</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>calvados grand</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>mélange sel casher et piment moulu</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>whisky black</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>traits aromatique</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>tasse garniture pour tarte la citrouille</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>canette club soda</t>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>pincée cardamome</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>tiges basilic</t>
+          <t>piment</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>piment oiseau coupé en</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>bar épicée</t>
+          <t>chai</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>chai infusé et</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>moulin ou pincée sel et poivre</t>
+          <t>poudre</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>poudre thé</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>tranche croustillant</t>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>part liqueur fleur sureau</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>rubans concombre roulés</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>parts vin mousseux ou</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>soda tonique au concombre</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>thé vert</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>lime biologique avec</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>tasse citronnelle coupée en</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>zestes lime</t>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>dry gin</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>sauge</t>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>et</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>tasse bananes congelées</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>ou gouttes</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>banane</t>
+          <t>limona</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>limona rose</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>zestes</t>
+          <t>sel</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>sel mer pour</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>tranche pamplemousse</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>au jasmin et</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>céréales type</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>sirop noisette maison ou du</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>feuilles menthe fraîche avec les tiges</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>garniture morceaux noisettes grillées et zeste</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>tasse framboise</t>
+          <t>cubes</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>cubes</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>cidre rosé pétillant</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>boisson au rhum et la noix coco</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>sucre canne</t>
+          <t>poudre</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>poudre cacao</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>sucre glace</t>
+          <t>sucre</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>sucre noix coco ou sucre</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>gouttes aromatique</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>garniture et noix coco</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>les zestes oranges</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>liqueur framboise</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>soda tonique léger sodas</t>
+          <t>cognac</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>cognac</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>eau fleur</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>vin mousseux idéalement</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>étoile</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>liqueur sureau</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>tasse fane céleri</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>vin mousseux villa</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>petit avion en papier</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>vermouth cidre rouge gorge</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ou zeste citron</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>boisson pétillante</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>tasse graines grena</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>garniture airelles pomme</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>arilles graines grena</t>
+          <t>pomme</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>airelles pomme</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>sanguine</t>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>cidre glace pétillant domaine</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>tasse morceaux concombre</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>au gingembre</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>tasse concombre coupé en morceaux</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>garniture mélange sucre et zestes pour</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>confiture ou compote</t>
+          <t>bien</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>menthe bien</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>tranche pêche</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>boisson la crème coureur</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>fleurs camomille ou sachet camomille</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>crème glacée la</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>mi poire tranchée finement</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>liqueur pêche</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>tranches poire pour les verres</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>boisson gazeuse au citron ou</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>beurre naturel</t>
+          <t>lime</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>lime et</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>chocolat noir fondu pour givrer</t>
+          <t>limona</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>limona du</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>sirop produits</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>lime flambé</t>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>cola la</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>tranches clémentine</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>vodka aromatisée</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>fraîches</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>vodka aromatisée bison</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>branches romarin</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>garniture thym</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>râpée</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>boisson la noix coco</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>purée</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>purée fraise et</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>clous girofle</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>garniture fraises et</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>tranche déshydraté</t>
+          <t>raifort</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>raifort</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>tasse poire ou nectar poire</t>
+          <t>au</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>tranche poire</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>garniture mélange poivre rose et fleur sel pour</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>tasse en</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>garniture basilic et petite omelette</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>pêche enrobée tranche</t>
+          <t>fraise</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>salsa fraises et</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>soda tonique léger</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>sirop miel</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>thé sirop simple</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>garniture ruban concombre et tête</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>basilic ou</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>petite branche sapin ou cèdre</t>
+          <t>bien</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>bien</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>traits bitter céleri</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>garniture tête basilic ou menthe</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>traits solution saline ou pincée fleur sel</t>
+          <t>purée</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>purée framboise</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>absinthe pour rincer le verre</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>garniture brochette</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>sachet chai ou mélange</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>mousse lait</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>déshydratée</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>garniture chocolat</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>nuage lait optionnel</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>sirop chai</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>feuilles sauge</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>vin mousseux brut nature</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>petite tranche pamplemousse</t>
+          <t>pomme</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>pomme rouge coupée en petits</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>tasse et tranchée en</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>boisson la</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>fines herbes au choix</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>crème glacée la vanille</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>graines cardamome</t>
+          <t>cerise</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>cerise</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>cidre mousseux avec ou sans alcool</t>
+          <t>déshydratée</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>déshydratée</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>vin mousseux brute</t>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>sirop zeste</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>citron déshydratée</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>garniture sel pour givrer</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>mélange maison sel et feuilles pour</t>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>thé vert la menthe infusé et</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>tranche fraise</t>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>whisky coureur</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>soda tonique la fleur sureau sodas</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>garniture flocons pour</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>tasse fleurs séchées</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>garniture branche</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>essentielle</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>garniture cube</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>eau aromatisée au thé bois</t>
+          <t>feuilles</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>feuilles pour les</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>liqueur thé du labrador</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>eau pétillante ou vin</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>noix coco râpée</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>garniture pince homard salicornes et citron</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>tranches pamplemousse</t>
+          <t>pince</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>pince</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>tranche pamplemousse et tête menthe pour les verres</t>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>vermouth blanc</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>chai fous</t>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>vin rosé gallo</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>feuilles basilic</t>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>pour les</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>eau pétillante aromatisée la fraise</t>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>crème menthe</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>barbe papa</t>
+          <t>sucre</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>sucre blanc pour</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>boules cantaloup</t>
+          <t>romarin</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>branche romarin pour les</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>menthe pour les verres</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>tasse petits fruits bleuets framboises</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>framboises</t>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>le jus</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>raisins verts</t>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>boisson pétillante la poire</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>thé fleur</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>eau pétillante ou soda au</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>au jasmin et litchi</t>
+          <t>curaçao</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>curaçao bleu marie</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ou émulsifiant</t>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>liqueur triple</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>eau pétillante ou soda</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>cardamome moulue</t>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>vodka optez pour une bonne</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>garniture lime déshydratée</t>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>garniture zeste</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>dattes fraîches dénoyautées</t>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>part jus</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>tranches fines curcuma</t>
+          <t>bière</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>bière noire</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>tranches et étoiles pour les verres</t>
+          <t>cacao en</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>grosse citrouille en guise bol</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>eau pétillante saveur pamplemousse</t>
+          <t>bâtons</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>bâtons cannelle pour les</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>sel pour le givre</t>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>tasse et framboises</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>passoire fine</t>
+          <t>tomates</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>tomates</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>cube sucre</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>bière type session</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>cidre pomme pétillant cidrerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>tasse morceaux concombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>tête menthe</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>grain café</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>ruban concombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>tête basilic</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>saveur fruit la passion</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>têtes menthe</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>tasse fraises du</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>bar grenadine</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>ombrelle papier</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>fleur comestible</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>soda tonique préférablement aromatisé la fleur sureau</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>brin</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>fleur comestible ou boules melon</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>menthe mi lime flambée</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>épice pour le givre</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>quartier lime</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>cuillère crème glacée sorbet la noix coco</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>déshydraté</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>cacao en poudre</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>tasse jus frais</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>thé piment</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>sauce épicée légèrement fumée comme la</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>tasse mangue jaune coupée en petits cubes</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>mexicaine sol</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>sel et paprika fumé pour le givre</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>pincée sel</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>zeste citron</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>vin mousseux blanquette</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>art</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>ou</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>quartier épice steak</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>fumée</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>zeste</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>cerise marasquin</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>fraises</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>cerise marasquin tranche</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>eau pétillante saveur pamplemousse la croix</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>pamplemousse et menthe</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>yogourt la noix coco</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>poudre cari et noix coco râpée</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>la</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>une pincée sel</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>tisane rhume biologique</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>tranches gingembre frais</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>fleurs camomille ou sachet tisane la camomille</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>bâton réglisse coupé en morceaux</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>séché</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>réglisse</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>citron déshydraté</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>poivre noir fraîchement moulu</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>au chocolat bitter</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>chocolat noir râpé</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>pincée cannelle moulue</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>pincée gingembre moulue</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>pincée moulue</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>noix râpée</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>pêche</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>tranches pêches</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>tasse cubes melon miel</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>cubes cantaloup</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>tranche cantaloup</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>piment oiseau épépiné</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>effilées</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>chocolat râpé</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>tasse pomme verte coupée en morceaux</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>tranche pomme verte</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>cidre pomme pétillant ou vin mousseux</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>concombres</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>garniture tranche pamplemousse</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>traits sauce piquante</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>traits sauce anglaise</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>un tour moulin poivre</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>épices steak pour givrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>concombres et saupoudrées steak</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>persil plat</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>sel céleri pour givrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>petits quartiers lime</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>tranches concombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>concombre trempée dans le miel</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>bière type</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>tasse naturelles</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>garniture tranche pomme</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>tranche pomme</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>tranchées</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>tranches concombre et concombre pour les verres</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>cubes melon</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>garnitures branches thym pour les verres</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>branches thym pour les verres</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>tasse rhum la noix coco</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>tasse lait coco en canne</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>surgelés</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>feuilles sauge pour les verres</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>garniture citron</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>tasse poire asiatique coupée en morceaux</t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>fleurs déshydratée</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>pincée</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>pincée cardamome moulue</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>piment oiseau coupé en morceaux</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>poudre thé matcha</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>tasse citronnelle coupée en morceaux</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>petit bouquet basilic</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>coriandre</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>ou gouttes rose</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>limona rose</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>garniture basilic</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>sel mer pour givrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>garniture lime</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>garniture morceaux noisettes grillées et zeste</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>garniture mangue</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>garniture et noix coco râpée</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>garniture thym</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>boisson pétillante sanguine</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>garniture airelles pomme grena</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>airelles pomme grena</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>garniture mélange sucre et zestes pour givrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>tranches gingembre</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>menthe bien fournie</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>lime et</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>garniture thym citronné</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>garniture</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>garniture fraises et basilic</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>garniture bleuets</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>garniture mélange poivre rose et fleur sel pour givrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>garniture basilic et petite omelette</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>garniture menthe</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>garniture ruban concombre et tête menthe</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>garniture tête basilic ou menthe</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>garniture brochette framboises</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>garniture chocolat noir</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>vin mousseux brut nature cava</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>pomme rouge coupée en petits cubes</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>pomme grena</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>branches thym</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>chocolat noir</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>cerise terre</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>garniture sel pour givrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>garniture sauge</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>garniture pomme</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>garniture flocons pour givrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>garniture grillée</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>garniture branche sapin</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>garniture cube grillée</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>cube grillée</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>tasse cubes melon</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>feuilles pour les verres</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>eau pétillante ou vin mousseux</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>garniture pince homard salicornes et citron</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>pince homard</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>tiges salicorne</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>petit bouquet lilas</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>pour les verres</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>cube sucre canne</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>sucre blanc pour givrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>branche romarin pour les verres</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>tasse petits fruits bleuets framboises fraises</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>le jus huître</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>fraîche</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>boisson pétillante la poire</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>eau pétillante ou soda au gingembre</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>tasse</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>tranche melon</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>tranches pêche</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>tranche concombre salé</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>soda</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>eau pétillante ou soda tonique</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>garniture zeste lime</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>part cidre mousseux</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>part jus frais</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>grosse citrouille en guise bol punch</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>bâtons cannelle pour les verres</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>tasse et framboises fraîches</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>bière légère</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>tomates cerises</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>sucre blanc et cannelle pour givrer</t>
+          <t>sucre</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>sucre blanc et cannelle pour</t>
         </is>
       </c>
     </row>

--- a/main/nettoyage/etape3bis.xlsx
+++ b/main/nettoyage/etape3bis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B547"/>
+  <dimension ref="A1:B697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>café chaud</t>
         </is>
       </c>
     </row>
@@ -469,19 +469,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>crème fouettée</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>la citrouille</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mélange tarte la</t>
+          <t>mélange tarte la citrouille</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>vermouth rouge</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jus citron</t>
+          <t>jus citron frais</t>
         </is>
       </c>
     </row>
@@ -548,384 +548,384 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>liqueur fruit la passion</t>
+          <t>orange</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>oeuf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jus lime</t>
+          <t>oeuf</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fruit la</t>
+          <t>vodka</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>liqueur fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mi fruit la</t>
+          <t>jus lime frais</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>fruit la passion</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>gousse</t>
+          <t>fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>vin</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>feuille</t>
+          <t>fruit la passion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>feuille</t>
+          <t>mi fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>eau</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>sucre</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sirop framboise monsieur</t>
+          <t>sucre</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sirop au</t>
+          <t>gousse vanille</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tiges</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tiges</t>
+          <t>eau pétillante</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>feuille</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>rhubarbe et</t>
+          <t>feuille</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ruban</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ruban</t>
+          <t>thé infusé</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tiges</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>botte rhubarbe tiges en tronçons</t>
+          <t>sirop framboise monsieur cocktail</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fraises</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fraises du et coupées en</t>
+          <t>sirop érable au</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>tige menthe</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jus pamplemousse</t>
+          <t>tiges menthe</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>soda tonique au concombre sodas</t>
+          <t>sirop simple</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>rhubarbe et</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rhum épicé</t>
+          <t>rhubarbe et</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>ruban rhubarbe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sirop sucre</t>
+          <t>ruban rhubarbe</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>botte rhubarbe tiges en tronçons</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tasse cerise dénoyautée et</t>
+          <t>botte rhubarbe tiges en tronçons</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>fraises</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sel épicé la pincée pour le</t>
+          <t>fraises du et coupées en</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sorbet au</t>
+          <t>jus pamplemousse frais</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>vin mousseux</t>
+          <t>soda tonique au concombre sodas</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>concombre</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>concombre</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>petite</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>petite feuille menthe ou</t>
+          <t>rhum épicé</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>sirop sucre canne</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sel</t>
+          <t>cerise dénoyautée et coupée</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sel pour</t>
+          <t>cerise dénoyautée et coupée</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>base vin</t>
+          <t>sel épicé la pincée pour le givre</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>citron</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>gin au concombre</t>
+          <t>sorbet au citron</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>vin mousseux</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>feuille</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ou quartiers</t>
+          <t>petite feuille menthe ou basilic</t>
         </is>
       </c>
     </row>
@@ -937,175 +937,175 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>liqueur amère</t>
+          <t>liqueur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>sel</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vin rosé</t>
+          <t>sel pour givrer</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>lime</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tige menthe</t>
+          <t>apéritif</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tige menthe</t>
+          <t>apéritif base vin</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>feuilles</t>
+          <t>amer</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>feuilles menthe</t>
+          <t>amer</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>citron</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>demi givre</t>
+          <t>citron</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>liqueur café</t>
+          <t>gin au concombre</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>café chaud</t>
+          <t>ou quartiers lime</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pincée fleur</t>
+          <t>liqueur amère</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>grains</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>grains</t>
+          <t>jus pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>vin rosé</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>miel</t>
+          <t>jus</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>morceaux</t>
+          <t>tige menthe</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>morceaux gingembre</t>
+          <t>tige menthe</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>gingembre</t>
+          <t>feuilles</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gingembre</t>
+          <t>feuilles menthe</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>whisky ou</t>
+          <t>demi givre sel</t>
         </is>
       </c>
     </row>
@@ -1117,571 +1117,571 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>liqueur framboise la</t>
+          <t>liqueur café</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>basilic</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>basilic</t>
+          <t>pincée fleur sel</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>grains café</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>part vin mousseux</t>
+          <t>whisky</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bâtons citronnelle fraîche coupés en tronçon</t>
+          <t>miel</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tisane infusée et</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>tisane infusée et</t>
+          <t>morceaux gingembre</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>fleurs</t>
+          <t>gingembre</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fleurs</t>
+          <t>gingembre frais</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>gingembre</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>gingembre cristallisé</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>liqueur gentiane</t>
+          <t>whisky ou bourbon</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>teinture camomille optionnel</t>
+          <t>marasquin</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>teinture camomille optionnel</t>
+          <t>marasquin</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jus pomme</t>
+          <t>liqueur framboise la chaufferie</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>basilic</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>gousses</t>
+          <t>basilic</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>déshydratée</t>
+          <t>fleur</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>rose déshydratée</t>
+          <t>fleur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>citron</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>citronnelle fraîche coupés en tronçon pouce</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>tisane</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vodka épicée spécial</t>
+          <t>tisane infusée et refroidie</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>fleurs</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>liqueur fleur sureau</t>
+          <t>fleurs déshydratées</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>lait</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>lait</t>
+          <t>lime déshydratée</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tasse whisky</t>
+          <t>liqueur gentiane</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>teinture camomille optionnel</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>gin fin épicé</t>
+          <t>teinture camomille optionnel</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tasse miel</t>
+          <t>vin rouge</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>gin boréal</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>jus pomme brut</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>gin fin herbacé</t>
+          <t>gousses</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>déshydraté</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sirop simple</t>
+          <t>rose déshydratée</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>raisins</t>
+          <t>séché</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>raisins</t>
+          <t>séchée</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>ou cannelle</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>raisins</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>brochette raisins</t>
+          <t>vodka épicée spécial piment</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rhum épicé distillerie</t>
+          <t>liqueur fleur sureau</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>liqueur distillerie</t>
+          <t>crème</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>vanille</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tuile sucre</t>
+          <t>vanille</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>vin rouge ou</t>
+          <t>thé moulue</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>soda au gingembre</t>
+          <t>rhum épicé lacs</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>aromatique</t>
+          <t>tasse</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>aromatique</t>
+          <t>tasse whisky</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>cannelle</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>cannelle</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>liqueur amère amer</t>
+          <t>gin fin épicé</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>gin au gingembre</t>
+          <t>jus pomme</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>tasse</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>soda tonique léger ou eau</t>
+          <t>tasse miel</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>poivre</t>
+          <t>pétillante</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>poivre</t>
+          <t>pétillante</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>pomme</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>blanc fermes</t>
+          <t>pomme</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>grains</t>
+          <t>anis</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>grains poivre rose concassés</t>
+          <t>anis</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>fraîche</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>liqueur chartreuse</t>
+          <t>fraîches</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>confiture</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>confiture</t>
+          <t>gin fin herbacé</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>raisins verts</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>pincée cannelle</t>
+          <t>raisins verts</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>que blancs fermes</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>que blancs fermes</t>
+          <t>soda tonique</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>cannelle</t>
+          <t>brochette raisins givrés</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cannelle</t>
+          <t>brochette raisins givrés</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>crème ou lait</t>
+          <t>rhum épicé distillerie lacs</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>moulue</t>
+          <t>liqueur distillerie lacs</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>sucre</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>thé mélange tarte la</t>
+          <t>tuile sucre</t>
         </is>
       </c>
     </row>
@@ -1693,847 +1693,847 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vin mousseux cava brut nature grand</t>
+          <t>vin rouge ou blanc</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vodka bison</t>
+          <t>soda au gingembre ale</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>gouttes</t>
+          <t>aromatique</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>gouttes sauce</t>
+          <t>aromatique</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>bière</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vodka pamplemousse et rose</t>
+          <t>bière gingembre</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>pétales rose</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>pétales rose</t>
+          <t>liqueur amère amer amer</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>tisane passion</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>tisane passion</t>
+          <t>gin au gingembre</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>sirop fruit la</t>
+          <t>soda tonique léger ou eau pétillante</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>distillerie</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>gin aux agrumes distillerie du</t>
+          <t>sirop litchi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>poivre rose</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>poivre rose</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>noix</t>
+          <t>oeuf</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>chips noix</t>
+          <t>blanc oeuf fermes</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>poivre rose</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>sirop pêche blanche</t>
+          <t>grains poivre rose concassés</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>pêche</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>pêche</t>
+          <t>liqueur chartreuse</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>confiture</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>traits au céleri</t>
+          <t>confiture</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>vodka fine la patate</t>
+          <t>pincée cannelle râpée</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>melon</t>
+          <t>oeuf</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>petits cubes melon</t>
+          <t>que blancs oeufs fermes</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>melon</t>
+          <t>cannelle</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>fine melon</t>
+          <t>cannelle râpée</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>avril</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ou sirop</t>
+          <t>avril</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>pétillante</t>
+          <t>jus citron</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>gin gin sans</t>
+          <t>crème ou lait</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jus fraise</t>
+          <t>moulue</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>du</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>du</t>
+          <t>thé mélange tarte la</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>gin saga</t>
+          <t>vin mousseux cava brut nature grand</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>thym</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>thym</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>rhum blanc rhum</t>
+          <t>vodka bison</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>têtes</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>têtes menthe pour les</t>
+          <t>liqueur herbes chartreuse jaune</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>basilic</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>bouquets basilic avec les</t>
+          <t>jus frais</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>sauce piquante</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>tequila</t>
+          <t>gouttes sauce piquante</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>fruit la</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>au fruit la passion</t>
+          <t>vodka pamplemousse et rose</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>déshydraté</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>gin fin zesté</t>
+          <t>pétales rose déshydratées</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>confiture</t>
+          <t>tisane passion</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>confiture baies</t>
+          <t>tisane passion</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>tranchée</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>tranchée</t>
+          <t>sirop fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>nectar</t>
+          <t>pamplemousse</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>nectar</t>
+          <t>pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>distillerie</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>liqueur litchi</t>
+          <t>gin aux agrumes distillerie du</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>gouttes</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>gouttes sauce piquante</t>
+          <t>eau coco</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>mélange sel casher et piment</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>mélange sel casher et piment</t>
+          <t>la mangue</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>coco</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>canette club</t>
+          <t>chips noix coco</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>vodka tomate et basilic</t>
+          <t>sirop pêche blanche</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>pêche</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sauce tomate</t>
+          <t>pêche blanche</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>sec</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>bar épicée</t>
+          <t>sec</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>amer</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>sauce anglaise</t>
+          <t>amer au céleri</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>céleri</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>tours moulin ou pincée sel et</t>
+          <t>ruban céleri</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>liqueur framboise maison</t>
+          <t>vodka fine la patate</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>melon</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>petits melon</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>melon</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>gin pied cochon</t>
+          <t>fine melon</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>aromatique</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>traits aromatique</t>
+          <t>ou sirop simple</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ruban</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>rubans concombre</t>
+          <t>gin gin sans</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>saumure</t>
+          <t>jus fraise</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>du</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>soda tonique au concombre</t>
+          <t>du</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>boisson la crème au</t>
+          <t>gin saga</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>vodka pur</t>
+          <t>café escape</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>céleri</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>eau pétillante</t>
+          <t>céleri</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>zeste</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>zestes</t>
+          <t>vodka terroir</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>fleur</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>boisson la crème</t>
+          <t>fleurs comestibles</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>lait</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>lait lait</t>
+          <t>rhum blanc rhum</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>poudre</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>poudre</t>
+          <t>sirop grenadine</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>gin sans alcool</t>
+          <t>liqueur pêche</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>curaçao</t>
+          <t>têtes</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>curaçao bleu</t>
+          <t>têtes menthe pour les verres</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>pétillante</t>
+          <t>basilic</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>limona pétillante</t>
+          <t>bouquets basilic avec les tiges</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>tequila</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>crème coco</t>
+          <t>tequila</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>céréales type</t>
+          <t>fruit la passion</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>céréales type</t>
+          <t>au fruit la passion club</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>feuilles</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>feuilles menthe fraîche avec les</t>
+          <t>gin fin zesté</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>framboise</t>
+          <t>confiture</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>framboise</t>
+          <t>confiture baies</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>cidre</t>
+          <t>tagette</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>cidre rosé</t>
+          <t>tagette</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>gin les herbes</t>
+          <t>liqueur fraise</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>eau rose</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>amer</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>crème fouettée</t>
+          <t>amer aromatique</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>tranchée finement</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>thé noir</t>
+          <t>tranchée finement</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>nectar</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>chartreuse</t>
+          <t>nectar pêche</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>zeste</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>les zestes</t>
+          <t>liqueur litchi</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>mélange sel casher et piment moulu</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>crème cassis cassis et</t>
+          <t>mélange sel casher et piment moulu</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>amer</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>jus pamplemousse frais</t>
+          <t>traits amer aromatique</t>
         </is>
       </c>
     </row>
@@ -2545,1855 +2545,1855 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>soda tonique léger</t>
+          <t>canette club soda</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>basilic</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>eau fleur</t>
+          <t>tiges basilic</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>vermouth sec</t>
+          <t>vodka tomate et basilic</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>fane</t>
+          <t>sauce tomate</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>fane</t>
+          <t>sauce tomate</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>bar épicée</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>whisky type</t>
+          <t>bar épicée</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>petit avion en</t>
+          <t>sauce anglaise</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>thé noir infusé</t>
+          <t>moulin ou pincée sel et poivre</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>bière</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ou zeste</t>
+          <t>bière</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>croustillant</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>jus fruits oasis fusion</t>
+          <t>liqueur framboise maison</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>tasse graines</t>
+          <t>gin pied cochon</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>arilles graines</t>
+          <t>ans</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>arilles graines</t>
+          <t>rubans concombre roulés</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>saumure</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>jus sanguine</t>
+          <t>saumure cornichon</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>purée</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>purée</t>
+          <t>soda tonique au concombre</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>morceaux</t>
+          <t>aneth</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>morceaux</t>
+          <t>aneth</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>boisson</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>boisson la crème au crème</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>gin sans alcool fleur</t>
+          <t>vodka pur vodka</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>sirop orange et romarin les charlatans</t>
+          <t>zestes lime</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>orange et vanille le</t>
+          <t>sauge</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>orange et vanille le</t>
+          <t>sauge</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>boisson</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>tasse concombre coupé en</t>
+          <t>boisson la crème</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>confiture</t>
+          <t>lait</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>confiture ou compote</t>
+          <t>lait lait</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>congelées</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>crème cassis et</t>
+          <t>congelées</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>cidre</t>
+          <t>cacao</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>cidre</t>
+          <t>cacao</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>vodka la pêche et fleur</t>
+          <t>gin sans alcool</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>café escape triple</t>
+          <t>jus orange frais</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>zeste</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>pincée fleur sel</t>
+          <t>zestes orange</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>curaçao</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>liqueur fleurs sureau</t>
+          <t>curaçao bleu humble</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>fleurs</t>
+          <t>limona</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>fleurs camomille sachet</t>
+          <t>limona pétillante</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>tranchée</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>mi poire tranchée</t>
+          <t>crème coco sucrée</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>céréales type</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>poire pour les</t>
+          <t>céréales type</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>feuilles</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>boisson la crème au chocolat</t>
+          <t>feuilles menthe fraîche avec les tiges</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>beurre</t>
+          <t>framboise</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>beurre</t>
+          <t>framboise</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>chocolat</t>
+          <t>cidre</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>chocolat noir fondu pour</t>
+          <t>cidre rosé pétillant</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>gin les herbes folles</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>whisky irlandais</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>sucre</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>lime flambé</t>
+          <t>sucre canne</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>sucre</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>gin rouge</t>
+          <t>sucre glace</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>jus clémentine</t>
+          <t>thé noir</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>romarin</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>romarin</t>
+          <t>chartreuse verte</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>amer</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>canette pétillante gin</t>
+          <t>gouttes amer aromatique</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>zeste</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>les zestes oranges</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>whisky sans alcool atypique</t>
+          <t>crème cassis cassis et filles</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>clous</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>clous girofle</t>
+          <t>soda tonique léger sodas</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>boisson la crème la vanille</t>
+          <t>eau fleur oranger</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>vermouth</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>café escape</t>
+          <t>vermouth sec</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>céleri</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>liqueur whisky</t>
+          <t>fane céleri</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>tasse poire ou nectar</t>
+          <t>whisky type bourbon</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>petit avion en papier</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>tasse pêche en</t>
+          <t>petit avion en papier</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>quartier</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>quartier pêche enrobée tranche</t>
+          <t>thé noir infusé préférence</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>gin bleu</t>
+          <t>ou zeste citron</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>sirop bleuet ou confiture</t>
+          <t>pincée cannelle</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>fraises</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>soda tonique</t>
+          <t>fraises</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>sirop ou</t>
+          <t>gin sans alcool signature</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>cannelle</t>
+          <t>jus fruits oasis fusion fruits</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>cannelle râpée</t>
+          <t>jus fruits oasis fusion fruits</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>arilles graines grena</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>whisky écossais</t>
+          <t>arilles graines grena</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>thé sirop</t>
+          <t>jus sanguine frais</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>marasquin</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>marasquin</t>
+          <t>orange sanguine</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>purée</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>gin gingembre</t>
+          <t>purée fraise</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>petite</t>
+          <t>morceaux</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>petite branche sapin ou</t>
+          <t>morceaux concombre</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>liqueur fleur</t>
+          <t>au gingembre</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>traits bitter céleri</t>
+          <t>gin sans alcool fleur oranger</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>traits solution saline ou pincée fleur</t>
+          <t>sirop orange et romarin les charlatans</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>absinthe pour rincer le</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>absinthe pour rincer le</t>
+          <t>orange et vanille le</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>sirop pin ou</t>
+          <t>gin sans alcool floral</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>tasse</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>jus citron frais</t>
+          <t>tasse concombre coupé en morceaux</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>chai</t>
+          <t>romarin</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>sachet chai ou mélange</t>
+          <t>romarin</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>confiture</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>nuage lait</t>
+          <t>confiture ou compote</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>feuilles</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>feuilles</t>
+          <t>crème cassis et filles</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>cidre</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>vermouth ambré</t>
+          <t>cidre mousseux</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>petite</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>petite</t>
+          <t>vodka la pêche et fleur oranger</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>crème menthe la crème menthe</t>
+          <t>café escape triple</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>pêche</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>tasse cerise et tranchée en</t>
+          <t>pêche</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>fines</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>fines herbes au</t>
+          <t>liqueur fleurs sureau</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>local</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>liqueur et au baumier</t>
+          <t>local</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>cardamome</t>
+          <t>fleur</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>graines cardamome</t>
+          <t>fleurs camomille sachet</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>cidre</t>
+          <t>poire</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>cidre mousseux avec ou sans</t>
+          <t>mi poire tranchée finement</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>tisane la camomille infusée et</t>
+          <t>poire</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>tisane la camomille infusée et</t>
+          <t>poire pour les verres</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>boisson</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>vin mousseux brute</t>
+          <t>boisson la crème au chocolat</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>distillerie</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>distillerie du</t>
+          <t>café</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>feuille</t>
+          <t>beurre naturel</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>mélange maison sel et feuilles pour</t>
+          <t>beurre naturel</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>noir</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>whisky seigle</t>
+          <t>chocolat noir fondu pour givrer</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>tasse fraises équeutées et tranchées en</t>
+          <t>mi</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>thé miel</t>
+          <t>rhum</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>soda tonique la fleur sureau</t>
+          <t>lime flambé</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>vermouth sec val</t>
+          <t>gin rouge</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>bière au café</t>
+          <t>jus clémentine frais</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>essentielle</t>
+          <t>clémentine</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>essentielle</t>
+          <t>clémentine</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>eau pétillante aromatisée au thé bois</t>
+          <t>gin sans alcool atypique</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>pétillante</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>liqueur thé du labrador</t>
+          <t>pétillante gin</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>curaçao</t>
+          <t>romarin</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>curaçao</t>
+          <t>branches romarin</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>crème noix</t>
+          <t>whisky sans alcool atypique</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>noix</t>
+          <t>nectar</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>noix coco</t>
+          <t>nectar poire</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>brandy</t>
+          <t>râpée</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>brandy</t>
+          <t>râpée</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>crème cassis</t>
+          <t>jus pur</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>pamplemousse</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>pamplemousse</t>
+          <t>gin gingembre</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>pour les</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>tranche pamplemousse et tête menthe pour les</t>
+          <t>clous girofle</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>déshydraté</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>liqueur amère sans alcool</t>
+          <t>déshydraté</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>jus lime frais</t>
+          <t>lacs</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>boisson</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>vodka patate route</t>
+          <t>boisson la crème la vanille</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>chai</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>chai fous</t>
+          <t>café escape cottage</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>gin lime et basilic distillerie</t>
+          <t>liqueur whisky</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>distillerie</t>
+          <t>tasse</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>distillerie</t>
+          <t>tasse poire ou nectar poire</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>tisane hibiscus et passion infusée et refroidie</t>
+          <t>poire</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>tisane hibiscus et passion infusée et refroidie</t>
+          <t>poire</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>pêche</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>sirop licorne cocktail</t>
+          <t>pêche en</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>pêche</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>eau pétillante aromatisée la</t>
+          <t>pêche enrobée tranche</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>barbe</t>
+          <t>gin bleu royal</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>vin orange</t>
+          <t>sirop bleuet ou confiture bleuet</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>tasse jus</t>
+          <t>soda tonique léger</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>boules</t>
+          <t>sirop ou orange</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>poivre</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>poivre rose</t>
+          <t>whisky écossais</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>menthe pour les</t>
+          <t>thé sirop simple</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>petite branche sapin ou cèdre</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>liqueur réduit</t>
+          <t>petite branche sapin ou cèdre</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>céleri</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>thé fleur</t>
+          <t>traits bitter céleri</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>sirop ou sirop</t>
+          <t>traits solution saline ou pincée fleur sel</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>absinthe pour rincer le verre</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>au jasmin et litchi</t>
+          <t>absinthe pour rincer le verre</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>jus bleuet</t>
+          <t>sirop pin ou sapin</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>sirop cocktail sirop</t>
+          <t>gin floral</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>sachet chai ou mélange</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ou émulsifiant</t>
+          <t>sachet chai ou mélange</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>les spiritueux</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>les spiritueux</t>
+          <t>orange déshydratée</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>cardamome</t>
+          <t>lait</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>cardamome</t>
+          <t>nuage lait optionnel</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>feuilles</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>vermouth rouge</t>
+          <t>feuilles sauge</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>jus frais et</t>
+          <t>vermouth ambré</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>atypique</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>garniture lime</t>
+          <t>atypique</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>dattes fraîches</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>dattes fraîches</t>
+          <t>jus blanc</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>pamplemousse</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>bière bière sans</t>
+          <t>petite pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>fines</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>fines</t>
+          <t>crème menthe la crème menthe</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>pour les</t>
+          <t>tasse</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>tranches et étoiles pour les</t>
+          <t>tasse cerise et tranchée en</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>fines herbes au choix</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>eau pétillante saveur</t>
+          <t>fines herbes au choix</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>sel</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>sel pour le</t>
+          <t>liqueur et au baumier églantine</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>graines cardamome</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>vodka aromatisée au citron</t>
+          <t>graines cardamome</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>passoire</t>
+          <t>cidre</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>passoire</t>
+          <t>cidre mousseux avec ou sans alcool</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>tisane</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>sirop litchi jus la</t>
+          <t>tisane la camomille infusée et refroidie</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>bière type</t>
+          <t>vin mousseux brute</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>citron</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>garniture tête</t>
+          <t>citron déshydratée</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>distillerie</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>liqueur maison</t>
+          <t>distillerie du</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>cidre</t>
+          <t>maison</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>cidre pomme pétillant cidrerie</t>
+          <t>mélange maison sel et feuilles pour</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>tasse morceaux</t>
+          <t>whisky seigle</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>tête</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>tête</t>
+          <t>thé</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>préférablement</t>
+          <t>fraise</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>préférablement</t>
+          <t>fraise</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>tasse</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>grain café</t>
+          <t>tasse fraises équeutées et tranchées en</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>thé matcha</t>
+          <t>liqueur rhubarbe</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>soda au</t>
+          <t>thé miel</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>fruit la</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>saveur fruit la passion</t>
+          <t>soda tonique la fleur sureau sodas</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>têtes</t>
+          <t>vermouth</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>têtes</t>
+          <t>vermouth sec val</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>fraises</t>
+          <t>bière</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>fraises du</t>
+          <t>bière au café</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>fleur</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>rhum brun club</t>
+          <t>fleurs séchées</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>essentielle</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>sirop fruit la passion</t>
+          <t>essentielle</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>eau pétillante aromatisée au thé bois</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ombrelle</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ombrelle</t>
+          <t>liqueur thé du labrador</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>curaçao</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>vin rouge</t>
+          <t>curaçao bleu</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>jus et pamplemousse</t>
+          <t>crème noix coco</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>râpé</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>sirop fraise</t>
+          <t>noix coco râpée</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>brandy</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>eau pétillante aromatisée la fraise</t>
+          <t>brandy</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>soda tonique préférablement aromatisé la fleur</t>
+          <t>crème cassis québécoise</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>brin</t>
+          <t>pamplemousse</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>brin</t>
+          <t>pamplemousse et tête menthe pour les verres</t>
         </is>
       </c>
     </row>
@@ -4405,499 +4405,499 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>liqueur melon</t>
+          <t>liqueur amère sans alcool atypique</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>melon</t>
+          <t>confiture</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>melon</t>
+          <t>confiture fraise</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>fleur comestible ou boules</t>
+          <t>vodka patate route</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>menthe mi lime</t>
+          <t>jus lime</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>épice pour le</t>
+          <t>sirop ou grenadine</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>quartier</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>quartier</t>
+          <t>chai fous</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>cuillère crème glacée sorbet la noix</t>
+          <t>gin lime et basilic distillerie</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>distillerie</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>concentré café infusé froid</t>
+          <t>distillerie</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>cacao en</t>
+          <t>feuille</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>cacao en</t>
+          <t>feuilles basilic</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>tisane hibiscus et passion infusée et refroidie</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>thé piment</t>
+          <t>tisane hibiscus et passion infusée et refroidie</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>traits sauce épicée légèrement fumée comme la</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>traits sauce épicée légèrement fumée comme la</t>
+          <t>sirop licorne cocktail</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>tasse mangue jaune coupée en petits</t>
+          <t>eau pétillante aromatisée la fraise</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>mexicaine</t>
+          <t>barbe papa</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>mexicaine</t>
+          <t>barbe papa</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>sel et paprika fumé pour le</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>sel et paprika fumé pour le</t>
+          <t>vin orange</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>cantaloup</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>gin jardin</t>
+          <t>boules cantaloup</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>pour les verres</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>jus vert green</t>
+          <t>menthe pour les verres</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>framboise</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>gin distillerie</t>
+          <t>framboises</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>sirop fruit la passion ou fruit la</t>
+          <t>gin lime</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>vin mousseux blanquette domaine</t>
+          <t>liqueur réduit</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>vin mousseux ou</t>
+          <t>thé eau fleur oranger</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>zeste</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>zeste</t>
+          <t>sirop ou sirop simple</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>gingembre</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>sirop simple ou sirop</t>
+          <t>gingembre</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>au jasmin et litchi</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>crème fouetter</t>
+          <t>au jasmin et litchi</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>vin mousseux blanquette</t>
+          <t>jus bleuet pur</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>sirop cocktail sirop simple</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>ou émulsifiant</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>les spiritueux</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>vodka rose prose</t>
+          <t>les spiritueux</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>jus tomate épicé sel</t>
+          <t>café corsé</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>moulue</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>sirop tonique</t>
+          <t>cardamome moulue</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>quartier</t>
+          <t>vermouth</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>quartier épice</t>
+          <t>vermouth rouge italien</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>fumée</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>fumée</t>
+          <t>jus frais et</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>cerise</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>cerise marasquin</t>
+          <t>ou sirop</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>rhum agricole trois rivières cuvée</t>
+          <t>garniture</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>rhum agricole trois rivières cuvée</t>
+          <t>garniture lime déshydratée</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>fraîche</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>eau pétillante saveur pamplemousse la</t>
+          <t>dattes fraîches dénoyautées</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>pamplemousse</t>
+          <t>bière</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>pamplemousse et tête</t>
+          <t>bière bière sans</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>fines curcuma</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>fines curcuma</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>anis</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>crème écossaise</t>
+          <t>et anis pour les verres</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>yogourt la noix</t>
+          <t>eau pétillante saveur pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>poudre</t>
+          <t>sel pour le givre</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>poudre cari et noix coco</t>
+          <t>sel pour le givre</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>vermouth rouge italien</t>
+          <t>vodka aromatisée au citron</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>liqueur mandarine mandarine</t>
+          <t>jus spray</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>passoire fine</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>une pincée</t>
+          <t>passoire fine</t>
         </is>
       </c>
     </row>
@@ -4909,319 +4909,319 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>tisane rhume biologique</t>
+          <t>rhum brun</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>thé fleurs camomille ou sachet tisane la</t>
+          <t>sirop litchi jus la canne</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>bâton réglisse coupé en</t>
+          <t>bière</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>bâton réglisse coupé en</t>
+          <t>bière type session</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>clous</t>
+          <t>garniture</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>clous</t>
+          <t>garniture tête menthe</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>pineau</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>pineau très</t>
+          <t>liqueur maison</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>pineau</t>
+          <t>cidre</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>pineau château ans</t>
+          <t>cidre pomme pétillant cidrerie</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>pineau</t>
+          <t>morceaux</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>pineau des château réserve rouge</t>
+          <t>morceaux concombres</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>tête</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>gin citron et tournesol distillerie</t>
+          <t>tête</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>poivre</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>poivre noir fraîchement</t>
+          <t>liqueur café maria</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>pineau</t>
+          <t>préférablement chaud</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>pineau</t>
+          <t>préférablement chaud</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>au chocolat</t>
+          <t>grain café</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>chocolat</t>
+          <t>concombre</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>chocolat noir</t>
+          <t>concombre coupé en morceaux</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>pincée gingembre</t>
+          <t>thé matcha infusé</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>noix</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>noix</t>
+          <t>soda au sodas</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>concombre</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>whisky aromatisé la pêche royal</t>
+          <t>ruban concombre</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>cubes</t>
+          <t>tête</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>cubes melon</t>
+          <t>tête basilic</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>grains</t>
+          <t>fruit la passion</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>grains poivre rose</t>
+          <t>saveur fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>têtes</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>liqueur cerise marasquin</t>
+          <t>têtes menthe</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>fraises</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>jus grena pur du</t>
+          <t>fraises du</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>jus melon</t>
+          <t>rhum brun club ans</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>piment</t>
+          <t>bar grenadine</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>piment oiseau</t>
+          <t>bar grenadine</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>ombrelle papier</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>gin style</t>
+          <t>ombrelle papier</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>chocolat</t>
+          <t>fleur</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>chocolat</t>
+          <t>fleur comestible</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>tasse pomme verte coupée en</t>
+          <t>jus et pamplemousse frais</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>cidre</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>cidre pomme pétillant ou vin</t>
+          <t>sirop fraise</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>whisky canadien</t>
+          <t>soda tonique préférablement aromatisé la fleur sureau</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>chai</t>
+          <t>brin van</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>chai</t>
+          <t>brin van</t>
         </is>
       </c>
     </row>
@@ -5233,1747 +5233,3547 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>liqueur rhubarbe maison</t>
+          <t>liqueur melon</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>melon</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>vin mousseux italien</t>
+          <t>melon miel</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>fleur</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>jus tomate et</t>
+          <t>fleur comestible ou boules melon</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>sauce piquante</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>traits sauce piquante</t>
+          <t>menthe mi lime flambée</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>sauce anglaise</t>
+          <t>épice pour le givre</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>traits sauce anglaise</t>
+          <t>épice pour le givre</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>un tour moulin</t>
+          <t>quartier lime</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>épices steak pour</t>
+          <t>cuillère crème glacée sorbet la noix coco</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>épices steak pour</t>
+          <t>cuillère crème glacée sorbet la noix coco</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>concombres et saupoudrées</t>
+          <t>concentré café infusé froid</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>persil</t>
+          <t>cacao</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>persil</t>
+          <t>cacao en poudre</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>sel céleri pour</t>
+          <t>thé piment</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>fumée</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>petits quartiers</t>
+          <t>sauce épicée légèrement fumée comme la</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>mangue</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>concombre trempée dans le</t>
+          <t>tasse mangue jaune coupée en petits cubes</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>mexicaine sol</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>whisky sortilège</t>
+          <t>mexicaine sol</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>sel et paprika fumé pour le givre</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>tasse naturelles</t>
+          <t>sel et paprika fumé pour le givre</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>vin blanc</t>
+          <t>gin jardin ver</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>compote pomme</t>
+          <t>jus vert green</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>gingembre</t>
+          <t>filtrée</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>gingembre en</t>
+          <t>filtrée</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>tasse liqueur amère</t>
+          <t>pincée sel</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>tasse jus pamplemousse</t>
+          <t>pincée</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>pour les</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>tranches concombre et concombre pour les</t>
+          <t>gin distillerie</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>sauvage</t>
+          <t>sirop fruit la passion ou fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>thé au</t>
+          <t>vin mousseux blanquette domaine</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>rhum brun</t>
+          <t>vin mousseux ou champagne</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>zeste</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>vermouth cidre</t>
+          <t>zeste citron</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>rhum épicé chic</t>
+          <t>sirop simple ou sirop vanille</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>et églantier</t>
+          <t>crème fouetter</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>fraises</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>fraises</t>
+          <t>vin mousseux blanquette</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>coupée</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>coupée en petits</t>
+          <t>art</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>coupée</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>coupée en</t>
+          <t>vodka rose prose vodka</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>garnitures branches thym pour les</t>
+          <t>ou</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>branches thym pour les</t>
+          <t>jus tomate épicé sel poivre</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>tasse rhum la noix coco</t>
+          <t>sirop tonique</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>lait</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>lait coco en</t>
+          <t>quartier épice steak</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>fumée</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>liqueur et cognac grand</t>
+          <t>fumée</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>feuilles</t>
+          <t>zeste</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>feuilles sauge pour les</t>
+          <t>zeste</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>thé noir au</t>
+          <t>liqueur framboise</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>marasquin</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>gin hibiscus</t>
+          <t>cerise marasquin</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>bleu</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>tasse poire asiatique coupée en</t>
+          <t>bleu</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>rhum agricole trois rivières cuvée</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>vodka aromatisée la poire</t>
+          <t>rhum agricole trois rivières cuvée</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>purée</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>purée pêche</t>
+          <t>eau pétillante saveur pamplemousse la croix</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>pamplemousse</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>vin mousseux rosé</t>
+          <t>pamplemousse et menthe</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>calvados grand</t>
+          <t>garniture</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>calvados grand</t>
+          <t>garniture romarin</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>whisky black</t>
+          <t>vin blanc</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>tasse garniture pour tarte la citrouille</t>
+          <t>crème écossaise magnum</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>coco</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>pincée cardamome</t>
+          <t>yogourt la noix coco</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>piment</t>
+          <t>râpé</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>piment oiseau coupé en</t>
+          <t>poudre cari et noix coco râpée</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>chai</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>chai infusé et</t>
+          <t>la</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>poudre</t>
+          <t>tequila</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>poudre thé</t>
+          <t>tequila tequila</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>part liqueur fleur sureau</t>
+          <t>liqueur mandarine mandarine napoléon</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>purée</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>parts vin mousseux ou</t>
+          <t>purée pêche</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>thé vert</t>
+          <t>une pincée sel</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>sanguine</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>tasse citronnelle coupée en</t>
+          <t>sanguine</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>dry gin</t>
+          <t>tisane rhume biologique</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>déshydraté</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>déshydratée</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ou gouttes</t>
+          <t>gin violette</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>limona rose</t>
+          <t>fleurs camomille ou sachet tisane la camomille</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>limona rose</t>
+          <t>fleurs camomille ou sachet tisane la camomille</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>réglisse</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>sel mer pour</t>
+          <t>bâton réglisse coupé en morceaux</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>séché</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>au jasmin et</t>
+          <t>séché</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>lis</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>sirop noisette maison ou du</t>
+          <t>réglisse</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>garniture morceaux noisettes grillées et zeste</t>
+          <t>gin portage</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>cubes</t>
+          <t>citron</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>cubes</t>
+          <t>citron déshydraté</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>rhum</t>
+          <t>pineau</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>boisson au rhum et la noix coco</t>
+          <t>pineau très vieux</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>poudre</t>
+          <t>pineau</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>poudre cacao</t>
+          <t>pineau château ans</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>saumure</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>sucre noix coco ou sucre</t>
+          <t>saumure</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>pineau</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>garniture et noix coco</t>
+          <t>pineau des château réserve rouge ans</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>citron</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>liqueur framboise</t>
+          <t>gin citron et tournesol distillerie lacs</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>cognac</t>
+          <t>noir</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>cognac</t>
+          <t>poivre noir fraîchement moulu</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>pineau</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>vin mousseux idéalement</t>
+          <t>pineau</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>cognac</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>liqueur sureau</t>
+          <t>cognac</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>vin mousseux villa</t>
+          <t>jus cerise</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>au chocolat bitter</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>vermouth cidre rouge gorge</t>
+          <t>au chocolat bitter</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>râpé</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>boisson pétillante</t>
+          <t>chocolat noir râpé</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>ans</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>garniture airelles pomme</t>
+          <t>ans</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>airelles pomme</t>
+          <t>pincée cannelle moulue</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>cidre</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>cidre glace pétillant domaine</t>
+          <t>pincée gingembre moulue</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>au gingembre</t>
+          <t>pincée moulue</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>râpé</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>garniture mélange sucre et zestes pour</t>
+          <t>noix râpée</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>bien</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>menthe bien</t>
+          <t>whisky royal</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>boisson la crème coureur</t>
+          <t>whisky aromatisé la pêche royal</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>crème glacée la</t>
+          <t>thé refroidi</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>pêche</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>liqueur pêche</t>
+          <t>pêches</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>boisson gazeuse au citron ou</t>
+          <t>liqueur cerise marasquin</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>crème</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>lime et</t>
+          <t>crème violette</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>du</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>limona du</t>
+          <t>whisky bourbon</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>jus grena pur du commerce</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>sirop produits</t>
+          <t>jus grena pur du commerce</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>cola la</t>
+          <t>cantaloup</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>vodka aromatisée</t>
+          <t>jus melon</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>vodka aromatisée bison</t>
+          <t>piment oiseau épépiné</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>garniture thym</t>
+          <t>gin style</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>effilées</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>boisson la noix coco</t>
+          <t>effilées</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>purée</t>
+          <t>râpé</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>purée fraise et</t>
+          <t>râpé</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>apéritif</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>garniture fraises et</t>
+          <t>apéritif</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>raifort</t>
+          <t>tasse</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>raifort</t>
+          <t>tasse pomme verte coupée en morceaux</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>pomme</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>sauce piquante</t>
+          <t>pomme verte</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>cidre</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>garniture mélange poivre rose et fleur sel pour</t>
+          <t>cidre pomme pétillant ou vin mousseux</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>garniture basilic et petite omelette</t>
+          <t>whisky canadien royal</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>chai</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>salsa fraises et</t>
+          <t>chai infusé</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>sirop miel</t>
+          <t>gin bleu</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>concombres</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>garniture ruban concombre et tête</t>
+          <t>concombres</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>basilic</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>basilic ou</t>
+          <t>liqueur rhubarbe maison</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>bien</t>
+          <t>garniture</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>bien</t>
+          <t>garniture pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>garniture tête basilic ou menthe</t>
+          <t>vin mousseux italien</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>purée</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>purée framboise</t>
+          <t>jus tomate et</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>sauce piquante</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>garniture brochette</t>
+          <t>traits sauce piquante</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>sauce anglaise</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>mousse lait</t>
+          <t>traits sauce anglaise</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>un tour moulin poivre</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>garniture chocolat</t>
+          <t>un tour moulin poivre</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>épices steak pour givrer</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>sirop chai</t>
+          <t>épices steak pour givrer</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>concombres</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>vin mousseux brut nature</t>
+          <t>concombres et olives saupoudrées steak</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>persil</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>pomme rouge coupée en petits</t>
+          <t>persil</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>boisson la</t>
+          <t>jus tomate</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>sel</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>crème glacée la vanille</t>
+          <t>sel céleri pour givrer</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>cerise</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>cerise</t>
+          <t>petits quartiers lime</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>déshydratée</t>
+          <t>concombre</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>déshydratée</t>
+          <t>concombre trempée dans le miel</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>sirop zeste</t>
+          <t>whisky sortilège whisky</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>bière</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>garniture sel pour givrer</t>
+          <t>bière type</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>lait</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>thé vert la menthe infusé et</t>
+          <t>lait</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>naturelles</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>whisky coureur</t>
+          <t>naturelles</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>garniture flocons pour</t>
+          <t>eau fleur</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>pomme</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>garniture branche</t>
+          <t>compote pomme</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>gingembre</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>garniture cube</t>
+          <t>gingembre en poudre</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>feuilles</t>
+          <t>garniture</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>feuilles pour les</t>
+          <t>garniture pomme</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>tranchées</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>eau pétillante ou vin</t>
+          <t>tranchées</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>concombre</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>garniture pince homard salicornes et citron</t>
+          <t>concombre et concombre pour les verres</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>pince</t>
+          <t>melon</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>pince</t>
+          <t>melon</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>vermouth</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>vermouth blanc</t>
+          <t>sauvage gin</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>vin</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>vin rosé gallo</t>
+          <t>gin sauvage</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>pour les</t>
+          <t>thé au jasmin</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>crème</t>
+          <t>vermouth</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>crème menthe</t>
+          <t>vermouth cidre blanc</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>sucre blanc pour</t>
+          <t>rhum épicé chic choc</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>romarin</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>branche romarin pour les</t>
+          <t>et églantier</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>fraises</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>tasse petits fruits bleuets framboises</t>
+          <t>fraises surgelées</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>surgelés</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>le jus</t>
+          <t>surgelées</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>boisson</t>
+          <t>coupée en petits cubes</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>boisson pétillante la poire</t>
+          <t>coupée en petits cubes</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>coupée en minces</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>eau pétillante ou soda au</t>
+          <t>coupée en minces</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>curaçao</t>
+          <t>garniture</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>curaçao bleu marie</t>
+          <t>garnitures branches thym pour les verres</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>branches</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>liqueur triple</t>
+          <t>branches thym pour les verres</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>eau</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>eau pétillante ou soda</t>
+          <t>rhum la noix coco</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>lait</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>vodka optez pour une bonne</t>
+          <t>lait coco en canne</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>surgelés</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>garniture zeste</t>
+          <t>surgelés</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>jus</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>part jus</t>
+          <t>liqueur orange et cognac grand</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>nectar</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>bière noire</t>
+          <t>nectar</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>grosse citrouille en guise bol</t>
+          <t>feuilles</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>grosse citrouille en guise bol</t>
+          <t>feuilles sauge pour les verres</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>cannelle</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>bâtons cannelle pour les</t>
+          <t>thé noir au jasmin</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>tasse</t>
+          <t>confiture</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>tasse et framboises</t>
+          <t>confiture bleuet</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>tomates</t>
+          <t>garniture</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>tomates</t>
+          <t>garniture citron</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
+          <t>café</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>café froid</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>gin hibiscus</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>tasse poire asiatique coupée en morceaux</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>tasse poire asiatique coupée en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>vodka aromatisée la poire</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>vermouth blanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>purée</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>purée pêche blanche</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>fleurs</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>fleurs déshydratée</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>vin mousseux rosé</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>calvados grand</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>calvados grand</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>whisky black</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>tasse garniture pour tarte la citrouille</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>pincée</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>pincée cardamome moulue</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>piment oiseau coupé en morceaux</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>piment oiseau coupé en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>whisky canadien</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>sirop érable</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>vin mousseux cava</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>vin rosé nages</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>tasse</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>chai</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>chai infusé et refroidi</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>poudre thé matcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>sirop chocolat</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>fleur</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>part liqueur fleur sureau</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>parts vin mousseux ou</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>thé vert infusé</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>tasse citronnelle coupée en morceaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>dry gin</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>whisky canadien club</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>coriandre</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>coriandre</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>coriandre</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>et coriandre</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>ou gouttes eau rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>limona</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>limona rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>garniture basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>sel</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>sel mer pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>au jasmin et refroidi</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>au jasmin et refroidi</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>sirop au</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>garniture lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>sirop noisette maison ou du commerce</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>garniture morceaux noisettes grillées et zeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>mangue</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>mangue</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>garniture mangue</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>rhum</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>boisson au rhum et la noix coco</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>coco</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>coco</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>cacao</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>poudre cacao cru</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
           <t>sucre</t>
         </is>
       </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>sucre blanc et cannelle pour</t>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>sucre noix coco ou sucre canne</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>vanille</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>extrait vanille</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>garniture et noix coco râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>garniture thym</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>vin mousseux idéalement champagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>liqueur sureau</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>vin mousseux villa</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>vodka quartz</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>vermouth cidre rouge gorge rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>jus pomme grena</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>sanguine</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>boisson pétillante sanguine</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>garniture airelles pomme grena</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>pomme</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>airelles pomme grena</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>cidre glace pétillant domaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>garniture mélange sucre et zestes pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>bien</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>menthe bien fournie</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>boisson</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>boisson la crème coureur bois</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>crème glacée la vanille</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>citron</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>boisson gazeuse au citron ou</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>lime</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>lime et orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>limona</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>limona du commerce</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>mangue</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>purée mangue</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>sirop produits artisanaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>cola la cerise</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>lime</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>lime et</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>vodka aromatisée</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>vodka aromatisée bison</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>liqueur et cognac grand</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>jus mangue</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>garniture thym citronné</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>coco</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>boisson la noix coco</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>purée</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>purée fraise et</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>garniture fraises et basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>bleu</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>bleuets</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>basilic pourpre</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>garniture bleuets</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>saumure</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>saumure olive</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>raifort haché</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>raifort haché</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>garniture mélange poivre rose et fleur sel pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>garniture basilic et petite omelette</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>fraise</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>salsa fraises et rhubarbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>garniture menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>limona</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>limona</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>sirop miel local</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>garniture ruban concombre et tête menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>basilic ou menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>bien</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>bien</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>garniture tête basilic ou menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>framboise</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>purée framboise</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>poire</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>purée poire</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>garniture brochette framboises</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>garniture chocolat noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>sirop chai</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>vin mousseux brut nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>jus poire</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>pomme</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>pomme rouge coupée en petits cubes</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>branches</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>branches thym</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>noir</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>cerise terre</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>cerise terre</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>sirop zeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>sirop sauge</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>garniture sel pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>garniture sauge</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>thé vert la menthe infusé et refroidi</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>thé vert la menthe infusé et refroidi</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>whisky</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>whisky coureur bois</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>garniture flocons pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>garniture grillée</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>garniture branche sapin</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>garniture cube grillée</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>grillée</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>grillée</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>feuilles</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>feuilles pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>eau pétillante ou vin mousseux</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>garniture pince homard salicornes et citron</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>pince homard</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>pince homard</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>tiges salicorne</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>tiges salicorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>vermouth</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>vermouth blanc blanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>lis</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>lis</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>vin rosé gallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>ou</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>crème</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>crème menthe blanche</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>sucre</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>sucre blanc pour givrer</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>romarin</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>branche romarin pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>fraise</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>tasse petits fruits bleuets framboises fraises</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>le jus huître</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>fraîche</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>fraîche</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>sirop</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>sirop thym</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>poire</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>boisson pétillante la poire</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>eau pétillante ou soda au gingembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>melon</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>melon eau</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>curaçao</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>curaçao bleu marie</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>liqueur</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>liqueur triple sec</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>concombre</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>concombre salé</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>maison</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>maison</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>soda</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>cidre</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>cidre</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>eau pétillante ou soda tonique</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>vodka</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>vodka optez pour une bonne qualité</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>jus</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>jus rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>garniture zeste lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>bière</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>bière noire</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>grosse citrouille en guise bol punch</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>grosse citrouille en guise bol punch</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>bâtons cannelle pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>tasse et framboises fraîches</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>bière</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>bière légère</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>tomates cerises</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>tomates cerises</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>sucre</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>sucre blanc et cannelle pour givrer</t>
         </is>
       </c>
     </row>
